--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLE" sheetId="1" r:id="rId1"/>
+    <sheet name="INSERT WILAYAH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,524 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>nama_user</t>
+  </si>
+  <si>
+    <t>alamat_user</t>
+  </si>
+  <si>
+    <t>no_telp_user</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>id_wilayah</t>
+  </si>
+  <si>
+    <t>kecamatan</t>
+  </si>
+  <si>
+    <t>desa</t>
+  </si>
+  <si>
+    <t>no_telp</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pelaporan</t>
+  </si>
+  <si>
+    <t>wilayah</t>
+  </si>
+  <si>
+    <t>id_pelaporan</t>
+  </si>
+  <si>
+    <t>tanggal_pelaporan</t>
+  </si>
+  <si>
+    <t>status_pelaporan</t>
+  </si>
+  <si>
+    <t>tanggal_edit</t>
+  </si>
+  <si>
+    <t>peninjauan</t>
+  </si>
+  <si>
+    <t>id_peninjauan</t>
+  </si>
+  <si>
+    <t>tanggal_peninjauan</t>
+  </si>
+  <si>
+    <t>status_peninjaun</t>
+  </si>
+  <si>
+    <t>penugasan</t>
+  </si>
+  <si>
+    <t>id_bencana</t>
+  </si>
+  <si>
+    <t>bencana</t>
+  </si>
+  <si>
+    <t>nama_bencana</t>
+  </si>
+  <si>
+    <t>kategori_bencana</t>
+  </si>
+  <si>
+    <t>level_bencana</t>
+  </si>
+  <si>
+    <t>wilayah_bencana</t>
+  </si>
+  <si>
+    <t>link_maps</t>
+  </si>
+  <si>
+    <t>korban</t>
+  </si>
+  <si>
+    <t>bukti_foto</t>
+  </si>
+  <si>
+    <t>bantuan</t>
+  </si>
+  <si>
+    <t>nama_bantuan</t>
+  </si>
+  <si>
+    <t>id_bantuan</t>
+  </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>stok_bantuan</t>
+  </si>
+  <si>
+    <t>id_stok_bantuan</t>
+  </si>
+  <si>
+    <t>tanggal_masuk</t>
+  </si>
+  <si>
+    <t>tanggal_kadaluarsa</t>
+  </si>
+  <si>
+    <t>status_stok_bantuan</t>
+  </si>
+  <si>
+    <t>INSERT INTO user (id_user, nama_user, alamat_user, no_telp_user, username, password, level) VALUES (?,?,?,?,?,?,?)</t>
+  </si>
+  <si>
+    <t>INSERT INTO wilayah (id_wilayah, kecamatan, desa, no_telp, status, penanggung_jawab) VALUES (?,?,?,?,?,?)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NAMA DESA</t>
+  </si>
+  <si>
+    <t>KODE POS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PATI LOR</t>
+  </si>
+  <si>
+    <t> SIDOKERTO</t>
+  </si>
+  <si>
+    <t> NGARUS</t>
+  </si>
+  <si>
+    <t> WINONG</t>
+  </si>
+  <si>
+    <t> PLANGITAN</t>
+  </si>
+  <si>
+    <t> PURI</t>
+  </si>
+  <si>
+    <t> BLARU</t>
+  </si>
+  <si>
+    <t> PATI KIDUL</t>
+  </si>
+  <si>
+    <t> PATI WETAN</t>
+  </si>
+  <si>
+    <t> GAJAHMATI</t>
+  </si>
+  <si>
+    <t> PANJUNAN</t>
+  </si>
+  <si>
+    <t> SEMAMPIR</t>
+  </si>
+  <si>
+    <t> KALIDORO</t>
+  </si>
+  <si>
+    <t> MUSTOKOHARJO</t>
+  </si>
+  <si>
+    <t> SIDOHARJO</t>
+  </si>
+  <si>
+    <t> KUTOHARJO</t>
+  </si>
+  <si>
+    <t> SARIREJO</t>
+  </si>
+  <si>
+    <t> DENGKEK</t>
+  </si>
+  <si>
+    <t> GERITAN</t>
+  </si>
+  <si>
+    <t> MULYOHARJO</t>
+  </si>
+  <si>
+    <t> NGEPUNGROJO</t>
+  </si>
+  <si>
+    <t> PARENGGAN</t>
+  </si>
+  <si>
+    <t> PAYANG</t>
+  </si>
+  <si>
+    <t> PURWOREJO</t>
+  </si>
+  <si>
+    <t> SINOMAN</t>
+  </si>
+  <si>
+    <t> SUGIHARJO</t>
+  </si>
+  <si>
+    <t> TAMBAHARJO</t>
+  </si>
+  <si>
+    <t> TAMBAHSARI</t>
+  </si>
+  <si>
+    <t> WIDOROKANDANG</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BANGSALREJO</t>
+  </si>
+  <si>
+    <t>BUMIAYU</t>
+  </si>
+  <si>
+    <t>JATIMULYO</t>
+  </si>
+  <si>
+    <t>JETAK</t>
+  </si>
+  <si>
+    <t>JONTRO</t>
+  </si>
+  <si>
+    <t>KEPOH</t>
+  </si>
+  <si>
+    <t>MARGOREJO</t>
+  </si>
+  <si>
+    <t>NGURENREJO</t>
+  </si>
+  <si>
+    <t>NGURENSITI</t>
+  </si>
+  <si>
+    <t>PAGERHARJO</t>
+  </si>
+  <si>
+    <t>PANGGUNGROYOM</t>
+  </si>
+  <si>
+    <t>SIDOHARJO</t>
+  </si>
+  <si>
+    <t>SUKOHARJO</t>
+  </si>
+  <si>
+    <t>SUWADUK</t>
+  </si>
+  <si>
+    <t>TAWANGHARJO</t>
+  </si>
+  <si>
+    <t>TLOGOHARUM</t>
+  </si>
+  <si>
+    <t>TLUWUK</t>
+  </si>
+  <si>
+    <t>WEDARIJAKSA</t>
+  </si>
+  <si>
+    <t>BADEGAN</t>
+  </si>
+  <si>
+    <t>BANYUURIP</t>
+  </si>
+  <si>
+    <t>BUMIREJO</t>
+  </si>
+  <si>
+    <t>DADIREJO</t>
+  </si>
+  <si>
+    <t>JAMBEAN KIDUL</t>
+  </si>
+  <si>
+    <t>JIMBARAN</t>
+  </si>
+  <si>
+    <t>LANGENHARJO</t>
+  </si>
+  <si>
+    <t>LANGSE</t>
+  </si>
+  <si>
+    <t>METARAMAN</t>
+  </si>
+  <si>
+    <t>MUKTIHARJO</t>
+  </si>
+  <si>
+    <t>NGAWEN</t>
+  </si>
+  <si>
+    <t>PEGANDAN</t>
+  </si>
+  <si>
+    <t>PENAMBUHAN</t>
+  </si>
+  <si>
+    <t>SOKOKULON</t>
+  </si>
+  <si>
+    <t>SUKOBUBUK</t>
+  </si>
+  <si>
+    <t>WANGUNREJO</t>
+  </si>
+  <si>
+    <t>ASEMPAPAN</t>
+  </si>
+  <si>
+    <t>GUYANGAN</t>
+  </si>
+  <si>
+    <t>KADILANGU</t>
+  </si>
+  <si>
+    <t>KAJAR</t>
+  </si>
+  <si>
+    <t>KARANGLEGI</t>
+  </si>
+  <si>
+    <t>KARANGWAGE</t>
+  </si>
+  <si>
+    <t>KERTOMULYO</t>
+  </si>
+  <si>
+    <t>KETANEN</t>
+  </si>
+  <si>
+    <t>KRANDAN</t>
+  </si>
+  <si>
+    <t>MOJOAGUNG</t>
+  </si>
+  <si>
+    <t>PASUCEN</t>
+  </si>
+  <si>
+    <t>REJOAGUNG</t>
+  </si>
+  <si>
+    <t>SAMBILAWANG</t>
+  </si>
+  <si>
+    <t>TEGALHARJO</t>
+  </si>
+  <si>
+    <t>TLUTUP</t>
+  </si>
+  <si>
+    <t>TRANGKIL</t>
+  </si>
+  <si>
+    <t>AGUNGMULYO</t>
+  </si>
+  <si>
+    <t> BAJOMULYO</t>
+  </si>
+  <si>
+    <t> BAKARAN KULON</t>
+  </si>
+  <si>
+    <t> BAKARAN WETAN</t>
+  </si>
+  <si>
+    <t> BENDAR</t>
+  </si>
+  <si>
+    <t> BRINGIN</t>
+  </si>
+  <si>
+    <t> BUMIREJO</t>
+  </si>
+  <si>
+    <t> DOROPAYUNG</t>
+  </si>
+  <si>
+    <t> DUKUTALIT</t>
+  </si>
+  <si>
+    <t> GADINGREJO</t>
+  </si>
+  <si>
+    <t> GENENGMULYO</t>
+  </si>
+  <si>
+    <t> GROWONG KIDUL</t>
+  </si>
+  <si>
+    <t> GROWONG LOR</t>
+  </si>
+  <si>
+    <t> JEPURO</t>
+  </si>
+  <si>
+    <t> KARANG</t>
+  </si>
+  <si>
+    <t> KARANGREJO</t>
+  </si>
+  <si>
+    <t> KAUMAN</t>
+  </si>
+  <si>
+    <t> KEBONSAWAHAN</t>
+  </si>
+  <si>
+    <t> KEDUNGPANCING</t>
+  </si>
+  <si>
+    <t> KETIP</t>
+  </si>
+  <si>
+    <t> KUDUKERAS</t>
+  </si>
+  <si>
+    <t> LANGENHARJO</t>
+  </si>
+  <si>
+    <t> MARGOMULYO</t>
+  </si>
+  <si>
+    <t> MINTOMULYO</t>
+  </si>
+  <si>
+    <t> PAJEKSAN</t>
+  </si>
+  <si>
+    <t> PEKUWON</t>
+  </si>
+  <si>
+    <t> SEJOMULYO</t>
+  </si>
+  <si>
+    <t> TLUWAH</t>
+  </si>
+  <si>
+    <t>BAKALAN</t>
+  </si>
+  <si>
+    <t>DUMPIL</t>
+  </si>
+  <si>
+    <t>NGAGEL</t>
+  </si>
+  <si>
+    <t>KENANTI</t>
+  </si>
+  <si>
+    <t>ALASDOWO</t>
+  </si>
+  <si>
+    <t>GROGOLAN</t>
+  </si>
+  <si>
+    <t>DUKUHSETI</t>
+  </si>
+  <si>
+    <t>BANYUTOWO</t>
+  </si>
+  <si>
+    <t>KEMBANG</t>
+  </si>
+  <si>
+    <t>TEGALOMBO</t>
+  </si>
+  <si>
+    <t>PUNCEL</t>
+  </si>
+  <si>
+    <t>WEDUSAN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +544,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +594,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +919,2683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>59111</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI LOR','59111');</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>UPPER(B2)</f>
+        <v>PATI LOR</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5">
+        <v>59111</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E30" si="0">"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SIDOKERTO','59111');</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="1">UPPER(B3)</f>
+        <v> SIDOKERTO</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>59112</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' NGARUS','59112');</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v> NGARUS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5">
+        <v>59112</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' WINONG','59112');</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v> WINONG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5">
+        <v>59113</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PLANGITAN','59113');</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v> PLANGITAN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5">
+        <v>59113</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PURI','59113');</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v> PURI</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5">
+        <v>59114</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' BLARU','59114');</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v> BLARU</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5">
+        <v>59114</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PATI KIDUL','59114');</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v> PATI KIDUL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5">
+        <v>59115</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PATI WETAN','59115');</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v> PATI WETAN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5">
+        <v>59116</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' GAJAHMATI','59116');</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v> GAJAHMATI</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>59116</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PANJUNAN','59116');</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v> PANJUNAN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5">
+        <v>59116</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SEMAMPIR','59116');</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v> SEMAMPIR</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5">
+        <v>59117</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' KALIDORO','59117');</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v> KALIDORO</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5">
+        <v>59117</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' MUSTOKOHARJO','59117');</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v> MUSTOKOHARJO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="5">
+        <v>59117</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SIDOHARJO','59117');</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v> SIDOHARJO</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="5">
+        <v>59118</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' KUTOHARJO','59118');</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v> KUTOHARJO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="5">
+        <v>59118</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SARIREJO','59118');</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v> SARIREJO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' DENGKEK','59119');</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v> DENGKEK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' GERITAN','59119');</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v> GERITAN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' MULYOHARJO','59119');</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v> MULYOHARJO</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' NGEPUNGROJO','59119');</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v> NGEPUNGROJO</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PARENGGAN','59119');</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v> PARENGGAN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PAYANG','59119');</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v> PAYANG</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PURWOREJO','59119');</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v> PURWOREJO</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SINOMAN','59119');</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v> SINOMAN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SUGIHARJO','59119');</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v> SUGIHARJO</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' TAMBAHARJO','59119');</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v> TAMBAHARJO</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' TAMBAHSARI','59119');</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v> TAMBAHSARI</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="26.25" thickBot="1">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="5">
+        <v>59119</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' WIDOROKANDANG','59119');</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v> WIDOROKANDANG</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','"&amp;B33&amp;"','"&amp;C33&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NAMA DESA','KODE POS');</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>NAMA DESA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E51" si="2">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','"&amp;B34&amp;"','"&amp;C34&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','BANGSALREJO','59152');</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>BANGSALREJO</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','BUMIAYU','59152');</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>BUMIAYU</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JATIMULYO','59152');</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
+        <v>JATIMULYO</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JETAK','59152');</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="1"/>
+        <v>JETAK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JONTRO','59152');</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="1"/>
+        <v>JONTRO</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','KEPOH','59152');</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="1"/>
+        <v>KEPOH</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A40" s="4">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','MARGOREJO','59152');</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="1"/>
+        <v>MARGOREJO</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A41" s="4">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NGURENREJO','59152');</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>NGURENREJO</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A42" s="4">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NGURENSITI','59152');</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>NGURENSITI</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','PAGERHARJO','59152');</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>PAGERHARJO</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="26.25" thickBot="1">
+      <c r="A44" s="4">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','PANGGUNGROYOM','59152');</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>PANGGUNGROYOM</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A45" s="4">
+        <v>12</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SIDOHARJO','59152');</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>SIDOHARJO</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SUKOHARJO','59152');</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>SUKOHARJO</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A47" s="4">
+        <v>14</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SUWADUK','59152');</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>SUWADUK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A48" s="4">
+        <v>15</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TAWANGHARJO','59152');</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>TAWANGHARJO</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A49" s="4">
+        <v>16</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TLOGOHARUM','59152');</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>TLOGOHARUM</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A50" s="4">
+        <v>17</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TLUWUK','59152');</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>TLUWUK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A51" s="4">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="5">
+        <v>59152</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','WEDARIJAKSA','59152');</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="1"/>
+        <v>WEDARIJAKSA</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A55" s="4">
+        <v>1</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E55" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','"&amp;B55&amp;"','"&amp;C55&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BADEGAN','59163');</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="1"/>
+        <v>BADEGAN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A56" s="4">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ref="E56:E72" si="3">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','"&amp;B56&amp;"','"&amp;C56&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BANYUURIP','59163');</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="1"/>
+        <v>BANYUURIP</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BUMIREJO','59163');</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="1"/>
+        <v>BUMIREJO</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A58" s="4">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','DADIREJO','59163');</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="1"/>
+        <v>DADIREJO</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A59" s="4">
+        <v>5</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','JAMBEAN KIDUL','59163');</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="1"/>
+        <v>JAMBEAN KIDUL</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A60" s="4">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','JIMBARAN','59163');</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="1"/>
+        <v>JIMBARAN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A61" s="4">
+        <v>7</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','LANGENHARJO','59163');</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="1"/>
+        <v>LANGENHARJO</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A62" s="4">
+        <v>8</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','LANGSE','59163');</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="1"/>
+        <v>LANGSE</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A63" s="4">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','MARGOREJO','59163');</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="1"/>
+        <v>MARGOREJO</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A64" s="4">
+        <v>10</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','METARAMAN','59163');</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="1"/>
+        <v>METARAMAN</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A65" s="4">
+        <v>11</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','MUKTIHARJO','59163');</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="1"/>
+        <v>MUKTIHARJO</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A66" s="4">
+        <v>12</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','NGAWEN','59163');</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="1"/>
+        <v>NGAWEN</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A67" s="4">
+        <v>13</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','PEGANDAN','59163');</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q130" si="4">UPPER(B67)</f>
+        <v>PEGANDAN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A68" s="4">
+        <v>14</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','PENAMBUHAN','59163');</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="4"/>
+        <v>PENAMBUHAN</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A69" s="4">
+        <v>15</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SOKOKULON','59163');</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="4"/>
+        <v>SOKOKULON</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A70" s="4">
+        <v>16</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SUKOBUBUK','59163');</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="4"/>
+        <v>SUKOBUBUK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A71" s="4">
+        <v>17</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SUKOHARJO','59163');</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="4"/>
+        <v>SUKOHARJO</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A72" s="4">
+        <v>19</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="5">
+        <v>59163</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','WANGUNREJO','59163');</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="4"/>
+        <v>WANGUNREJO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E75" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','"&amp;B75&amp;"','"&amp;C75&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','ASEMPAPAN','59153');</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="4"/>
+        <v>ASEMPAPAN</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A76" s="4">
+        <v>2</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ref="E76:E90" si="5">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','"&amp;B76&amp;"','"&amp;C76&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','GUYANGAN','59153');</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="4"/>
+        <v>GUYANGAN</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KADILANGU','59153');</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="4"/>
+        <v>KADILANGU</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KAJAR','59153');</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="4"/>
+        <v>KAJAR</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A79" s="4">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KARANGLEGI','59153');</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="4"/>
+        <v>KARANGLEGI</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A80" s="4">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KARANGWAGE','59153');</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="4"/>
+        <v>KARANGWAGE</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A81" s="4">
+        <v>7</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KERTOMULYO','59153');</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="4"/>
+        <v>KERTOMULYO</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A82" s="4">
+        <v>8</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KETANEN','59153');</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="4"/>
+        <v>KETANEN</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A83" s="4">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KRANDAN','59153');</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="4"/>
+        <v>KRANDAN</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A84" s="4">
+        <v>10</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','MOJOAGUNG','59153');</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="4"/>
+        <v>MOJOAGUNG</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A85" s="4">
+        <v>11</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','PASUCEN','59153');</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="4"/>
+        <v>PASUCEN</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A86" s="4">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','REJOAGUNG','59153');</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="4"/>
+        <v>REJOAGUNG</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A87" s="4">
+        <v>13</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','SAMBILAWANG','59153');</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="4"/>
+        <v>SAMBILAWANG</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A88" s="4">
+        <v>14</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TEGALHARJO','59153');</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="4"/>
+        <v>TEGALHARJO</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A89" s="4">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TLUTUP','59153');</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="4"/>
+        <v>TLUTUP</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A90" s="4">
+        <v>16</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="5">
+        <v>59153</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TRANGKIL','59153');</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="4"/>
+        <v>TRANGKIL</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A93" s="4">
+        <v>1</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E93" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','"&amp;B93&amp;"','"&amp;C93&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','AGUNGMULYO','59185');</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="4"/>
+        <v>AGUNGMULYO</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A94" s="4">
+        <v>2</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ref="E94:E120" si="6">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','"&amp;B94&amp;"','"&amp;C94&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAJOMULYO','59185');</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="4"/>
+        <v> BAJOMULYO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A95" s="4">
+        <v>3</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAKARAN KULON','59185');</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="4"/>
+        <v> BAKARAN KULON</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A96" s="4">
+        <v>4</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAKARAN WETAN','59185');</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="4"/>
+        <v> BAKARAN WETAN</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A97" s="4">
+        <v>5</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BENDAR','59185');</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="4"/>
+        <v> BENDAR</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A98" s="4">
+        <v>6</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BRINGIN','59185');</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="4"/>
+        <v> BRINGIN</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A99" s="4">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BUMIREJO','59185');</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="4"/>
+        <v> BUMIREJO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A100" s="4">
+        <v>8</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' DOROPAYUNG','59185');</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="4"/>
+        <v> DOROPAYUNG</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A101" s="4">
+        <v>9</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' DUKUTALIT','59185');</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="4"/>
+        <v> DUKUTALIT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A102" s="4">
+        <v>10</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GADINGREJO','59185');</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="4"/>
+        <v> GADINGREJO</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A103" s="4">
+        <v>11</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GENENGMULYO','59185');</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="4"/>
+        <v> GENENGMULYO</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A104" s="4">
+        <v>12</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GROWONG KIDUL','59185');</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="4"/>
+        <v> GROWONG KIDUL</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A105" s="4">
+        <v>13</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GROWONG LOR','59185');</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="4"/>
+        <v> GROWONG LOR</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A106" s="4">
+        <v>14</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' JEPURO','59185');</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="4"/>
+        <v> JEPURO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A107" s="4">
+        <v>15</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KARANG','59185');</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="4"/>
+        <v> KARANG</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A108" s="4">
+        <v>16</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KARANGREJO','59185');</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="4"/>
+        <v> KARANGREJO</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A109" s="4">
+        <v>17</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KAUMAN','59185');</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="4"/>
+        <v> KAUMAN</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A110" s="4">
+        <v>18</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KEBONSAWAHAN','59185');</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="4"/>
+        <v> KEBONSAWAHAN</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A111" s="4">
+        <v>19</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KEDUNGPANCING','59185');</v>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="4"/>
+        <v> KEDUNGPANCING</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A112" s="4">
+        <v>20</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KETIP','59185');</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="4"/>
+        <v> KETIP</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A113" s="4">
+        <v>21</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KUDUKERAS','59185');</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="4"/>
+        <v> KUDUKERAS</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A114" s="4">
+        <v>22</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' LANGENHARJO','59185');</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="4"/>
+        <v> LANGENHARJO</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A115" s="4">
+        <v>23</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' MARGOMULYO','59185');</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="4"/>
+        <v> MARGOMULYO</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A116" s="4">
+        <v>24</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' MINTOMULYO','59185');</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="4"/>
+        <v> MINTOMULYO</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A117" s="4">
+        <v>25</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' PAJEKSAN','59185');</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" si="4"/>
+        <v> PAJEKSAN</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A118" s="4">
+        <v>26</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' PEKUWON','59185');</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="4"/>
+        <v> PEKUWON</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A119" s="4">
+        <v>27</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' SEJOMULYO','59185');</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" si="4"/>
+        <v> SEJOMULYO</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A120" s="4">
+        <v>28</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="5">
+        <v>59185</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="6"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' TLUWAH','59185');</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" si="4"/>
+        <v> TLUWAH</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A123" s="4">
+        <v>1</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E123" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B123&amp;"','"&amp;C123&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','BAKALAN','59158');</v>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" si="4"/>
+        <v>BAKALAN</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A124" s="4">
+        <v>2</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" ref="E124:E134" si="7">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B124&amp;"','"&amp;C124&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','DUMPIL','59158');</v>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" si="4"/>
+        <v>DUMPIL</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A125" s="4">
+        <v>3</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','NGAGEL','59158');</v>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="4"/>
+        <v>NGAGEL</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A126" s="4">
+        <v>4</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','KENANTI','59158');</v>
+      </c>
+      <c r="Q126" t="str">
+        <f t="shared" si="4"/>
+        <v>KENANTI</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A127" s="4">
+        <v>5</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','ALASDOWO','59158');</v>
+      </c>
+      <c r="Q127" t="str">
+        <f t="shared" si="4"/>
+        <v>ALASDOWO</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A128" s="4">
+        <v>6</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','GROGOLAN','59158');</v>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" si="4"/>
+        <v>GROGOLAN</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A129" s="4">
+        <v>7</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','DUKUHSETI','59158');</v>
+      </c>
+      <c r="Q129" t="str">
+        <f t="shared" si="4"/>
+        <v>DUKUHSETI</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A130" s="4">
+        <v>8</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','BANYUTOWO','59158');</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="4"/>
+        <v>BANYUTOWO</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A131" s="4">
+        <v>9</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','KEMBANG','59158');</v>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" ref="Q131:Q137" si="8">UPPER(B131)</f>
+        <v>KEMBANG</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A132" s="4">
+        <v>10</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','TEGALOMBO','59158');</v>
+      </c>
+      <c r="Q132" t="str">
+        <f t="shared" si="8"/>
+        <v>TEGALOMBO</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A133" s="4">
+        <v>11</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','PUNCEL','59158');</v>
+      </c>
+      <c r="Q133" t="str">
+        <f t="shared" si="8"/>
+        <v>PUNCEL</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A134" s="4">
+        <v>12</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C134" s="5">
+        <v>59158</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','WEDUSAN','59158');</v>
+      </c>
+      <c r="Q134" t="str">
+        <f t="shared" si="8"/>
+        <v>WEDUSAN</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q135" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q136" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q137" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
     <sheet name="INSERT WILAYAH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="171">
   <si>
     <t>user</t>
   </si>
@@ -530,12 +530,15 @@
   </si>
   <si>
     <t>WEDUSAN</t>
+  </si>
+  <si>
+    <t>bukti_peninjauan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -919,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1121,6 +1124,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:13">
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1131,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123:E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
     <sheet name="INSERT WILAYAH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="169">
   <si>
     <t>user</t>
   </si>
@@ -415,87 +415,6 @@
     <t>AGUNGMULYO</t>
   </si>
   <si>
-    <t> BAJOMULYO</t>
-  </si>
-  <si>
-    <t> BAKARAN KULON</t>
-  </si>
-  <si>
-    <t> BAKARAN WETAN</t>
-  </si>
-  <si>
-    <t> BENDAR</t>
-  </si>
-  <si>
-    <t> BRINGIN</t>
-  </si>
-  <si>
-    <t> BUMIREJO</t>
-  </si>
-  <si>
-    <t> DOROPAYUNG</t>
-  </si>
-  <si>
-    <t> DUKUTALIT</t>
-  </si>
-  <si>
-    <t> GADINGREJO</t>
-  </si>
-  <si>
-    <t> GENENGMULYO</t>
-  </si>
-  <si>
-    <t> GROWONG KIDUL</t>
-  </si>
-  <si>
-    <t> GROWONG LOR</t>
-  </si>
-  <si>
-    <t> JEPURO</t>
-  </si>
-  <si>
-    <t> KARANG</t>
-  </si>
-  <si>
-    <t> KARANGREJO</t>
-  </si>
-  <si>
-    <t> KAUMAN</t>
-  </si>
-  <si>
-    <t> KEBONSAWAHAN</t>
-  </si>
-  <si>
-    <t> KEDUNGPANCING</t>
-  </si>
-  <si>
-    <t> KETIP</t>
-  </si>
-  <si>
-    <t> KUDUKERAS</t>
-  </si>
-  <si>
-    <t> LANGENHARJO</t>
-  </si>
-  <si>
-    <t> MARGOMULYO</t>
-  </si>
-  <si>
-    <t> MINTOMULYO</t>
-  </si>
-  <si>
-    <t> PAJEKSAN</t>
-  </si>
-  <si>
-    <t> PEKUWON</t>
-  </si>
-  <si>
-    <t> SEJOMULYO</t>
-  </si>
-  <si>
-    <t> TLUWAH</t>
-  </si>
-  <si>
     <t>BAKALAN</t>
   </si>
   <si>
@@ -533,6 +452,81 @@
   </si>
   <si>
     <t>bukti_peninjauan</t>
+  </si>
+  <si>
+    <t>BAJOMULYO</t>
+  </si>
+  <si>
+    <t>BAKARAN KULON</t>
+  </si>
+  <si>
+    <t>BAKARAN WETAN</t>
+  </si>
+  <si>
+    <t>BENDAR</t>
+  </si>
+  <si>
+    <t>BRINGIN</t>
+  </si>
+  <si>
+    <t>DOROPAYUNG</t>
+  </si>
+  <si>
+    <t>DUKUTALIT</t>
+  </si>
+  <si>
+    <t>GADINGREJO</t>
+  </si>
+  <si>
+    <t>GENENGMULYO</t>
+  </si>
+  <si>
+    <t>GROWONG KIDUL</t>
+  </si>
+  <si>
+    <t>GROWONG LOR</t>
+  </si>
+  <si>
+    <t>JEPURO</t>
+  </si>
+  <si>
+    <t>KARANG</t>
+  </si>
+  <si>
+    <t>KARANGREJO</t>
+  </si>
+  <si>
+    <t>KAUMAN</t>
+  </si>
+  <si>
+    <t>KEBONSAWAHAN</t>
+  </si>
+  <si>
+    <t>KEDUNGPANCING</t>
+  </si>
+  <si>
+    <t>KETIP</t>
+  </si>
+  <si>
+    <t>KUDUKERAS</t>
+  </si>
+  <si>
+    <t>MARGOMULYO</t>
+  </si>
+  <si>
+    <t>MINTOMULYO</t>
+  </si>
+  <si>
+    <t>PAJEKSAN</t>
+  </si>
+  <si>
+    <t>PEKUWON</t>
+  </si>
+  <si>
+    <t>SEJOMULYO</t>
+  </si>
+  <si>
+    <t>TLUWAH</t>
   </si>
 </sst>
 </file>
@@ -924,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1120,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="G10" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
       <selection activeCell="E123" sqref="E123:E134"/>
     </sheetView>
   </sheetViews>
@@ -2822,18 +2816,18 @@
         <v>2</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C94" s="5">
         <v>59185</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ref="E94:E120" si="6">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','"&amp;B94&amp;"','"&amp;C94&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAJOMULYO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAJOMULYO','59185');</v>
       </c>
       <c r="Q94" t="str">
         <f t="shared" si="4"/>
-        <v> BAJOMULYO</v>
+        <v>BAJOMULYO</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15.75" thickBot="1">
@@ -2841,18 +2835,18 @@
         <v>3</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C95" s="5">
         <v>59185</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAKARAN KULON','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAKARAN KULON','59185');</v>
       </c>
       <c r="Q95" t="str">
         <f t="shared" si="4"/>
-        <v> BAKARAN KULON</v>
+        <v>BAKARAN KULON</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15.75" thickBot="1">
@@ -2860,18 +2854,18 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C96" s="5">
         <v>59185</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BAKARAN WETAN','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAKARAN WETAN','59185');</v>
       </c>
       <c r="Q96" t="str">
         <f t="shared" si="4"/>
-        <v> BAKARAN WETAN</v>
+        <v>BAKARAN WETAN</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15.75" thickBot="1">
@@ -2879,18 +2873,18 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C97" s="5">
         <v>59185</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BENDAR','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BENDAR','59185');</v>
       </c>
       <c r="Q97" t="str">
         <f t="shared" si="4"/>
-        <v> BENDAR</v>
+        <v>BENDAR</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15.75" thickBot="1">
@@ -2898,18 +2892,18 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C98" s="5">
         <v>59185</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BRINGIN','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BRINGIN','59185');</v>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="4"/>
-        <v> BRINGIN</v>
+        <v>BRINGIN</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="15.75" thickBot="1">
@@ -2917,18 +2911,18 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C99" s="5">
         <v>59185</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' BUMIREJO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BUMIREJO','59185');</v>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="4"/>
-        <v> BUMIREJO</v>
+        <v>BUMIREJO</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15.75" thickBot="1">
@@ -2936,18 +2930,18 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C100" s="5">
         <v>59185</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' DOROPAYUNG','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','DOROPAYUNG','59185');</v>
       </c>
       <c r="Q100" t="str">
         <f t="shared" si="4"/>
-        <v> DOROPAYUNG</v>
+        <v>DOROPAYUNG</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15.75" thickBot="1">
@@ -2955,18 +2949,18 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C101" s="5">
         <v>59185</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' DUKUTALIT','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','DUKUTALIT','59185');</v>
       </c>
       <c r="Q101" t="str">
         <f t="shared" si="4"/>
-        <v> DUKUTALIT</v>
+        <v>DUKUTALIT</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15.75" thickBot="1">
@@ -2974,18 +2968,18 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C102" s="5">
         <v>59185</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GADINGREJO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GADINGREJO','59185');</v>
       </c>
       <c r="Q102" t="str">
         <f t="shared" si="4"/>
-        <v> GADINGREJO</v>
+        <v>GADINGREJO</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15.75" thickBot="1">
@@ -2993,18 +2987,18 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C103" s="5">
         <v>59185</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GENENGMULYO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GENENGMULYO','59185');</v>
       </c>
       <c r="Q103" t="str">
         <f t="shared" si="4"/>
-        <v> GENENGMULYO</v>
+        <v>GENENGMULYO</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15.75" thickBot="1">
@@ -3012,18 +3006,18 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C104" s="5">
         <v>59185</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GROWONG KIDUL','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GROWONG KIDUL','59185');</v>
       </c>
       <c r="Q104" t="str">
         <f t="shared" si="4"/>
-        <v> GROWONG KIDUL</v>
+        <v>GROWONG KIDUL</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="15.75" thickBot="1">
@@ -3031,18 +3025,18 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C105" s="5">
         <v>59185</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' GROWONG LOR','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GROWONG LOR','59185');</v>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="4"/>
-        <v> GROWONG LOR</v>
+        <v>GROWONG LOR</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="15.75" thickBot="1">
@@ -3050,18 +3044,18 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C106" s="5">
         <v>59185</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' JEPURO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','JEPURO','59185');</v>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="4"/>
-        <v> JEPURO</v>
+        <v>JEPURO</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="15.75" thickBot="1">
@@ -3069,18 +3063,18 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C107" s="5">
         <v>59185</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KARANG','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KARANG','59185');</v>
       </c>
       <c r="Q107" t="str">
         <f t="shared" si="4"/>
-        <v> KARANG</v>
+        <v>KARANG</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="15.75" thickBot="1">
@@ -3088,18 +3082,18 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C108" s="5">
         <v>59185</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KARANGREJO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KARANGREJO','59185');</v>
       </c>
       <c r="Q108" t="str">
         <f t="shared" si="4"/>
-        <v> KARANGREJO</v>
+        <v>KARANGREJO</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15.75" thickBot="1">
@@ -3107,18 +3101,18 @@
         <v>17</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C109" s="5">
         <v>59185</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KAUMAN','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KAUMAN','59185');</v>
       </c>
       <c r="Q109" t="str">
         <f t="shared" si="4"/>
-        <v> KAUMAN</v>
+        <v>KAUMAN</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15.75" thickBot="1">
@@ -3126,18 +3120,18 @@
         <v>18</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C110" s="5">
         <v>59185</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KEBONSAWAHAN','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KEBONSAWAHAN','59185');</v>
       </c>
       <c r="Q110" t="str">
         <f t="shared" si="4"/>
-        <v> KEBONSAWAHAN</v>
+        <v>KEBONSAWAHAN</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="15.75" thickBot="1">
@@ -3145,18 +3139,18 @@
         <v>19</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C111" s="5">
         <v>59185</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KEDUNGPANCING','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KEDUNGPANCING','59185');</v>
       </c>
       <c r="Q111" t="str">
         <f t="shared" si="4"/>
-        <v> KEDUNGPANCING</v>
+        <v>KEDUNGPANCING</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="15.75" thickBot="1">
@@ -3164,18 +3158,18 @@
         <v>20</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C112" s="5">
         <v>59185</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KETIP','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KETIP','59185');</v>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="4"/>
-        <v> KETIP</v>
+        <v>KETIP</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="15.75" thickBot="1">
@@ -3183,18 +3177,18 @@
         <v>21</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C113" s="5">
         <v>59185</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' KUDUKERAS','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KUDUKERAS','59185');</v>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="4"/>
-        <v> KUDUKERAS</v>
+        <v>KUDUKERAS</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="15.75" thickBot="1">
@@ -3202,18 +3196,18 @@
         <v>22</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C114" s="5">
         <v>59185</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' LANGENHARJO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','LANGENHARJO','59185');</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" si="4"/>
-        <v> LANGENHARJO</v>
+        <v>LANGENHARJO</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15.75" thickBot="1">
@@ -3221,18 +3215,18 @@
         <v>23</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C115" s="5">
         <v>59185</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' MARGOMULYO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','MARGOMULYO','59185');</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" si="4"/>
-        <v> MARGOMULYO</v>
+        <v>MARGOMULYO</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15.75" thickBot="1">
@@ -3240,18 +3234,18 @@
         <v>24</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C116" s="5">
         <v>59185</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' MINTOMULYO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','MINTOMULYO','59185');</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" si="4"/>
-        <v> MINTOMULYO</v>
+        <v>MINTOMULYO</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="15.75" thickBot="1">
@@ -3259,18 +3253,18 @@
         <v>25</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C117" s="5">
         <v>59185</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' PAJEKSAN','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','PAJEKSAN','59185');</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" si="4"/>
-        <v> PAJEKSAN</v>
+        <v>PAJEKSAN</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="15.75" thickBot="1">
@@ -3278,18 +3272,18 @@
         <v>26</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C118" s="5">
         <v>59185</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' PEKUWON','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','PEKUWON','59185');</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" si="4"/>
-        <v> PEKUWON</v>
+        <v>PEKUWON</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="15.75" thickBot="1">
@@ -3297,18 +3291,18 @@
         <v>27</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C119" s="5">
         <v>59185</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' SEJOMULYO','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','SEJOMULYO','59185');</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" si="4"/>
-        <v> SEJOMULYO</v>
+        <v>SEJOMULYO</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="15.75" thickBot="1">
@@ -3316,24 +3310,21 @@
         <v>28</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C120" s="5">
         <v>59185</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA',' TLUWAH','59185');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','TLUWAH','59185');</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" si="4"/>
-        <v> TLUWAH</v>
+        <v>TLUWAH</v>
       </c>
     </row>
     <row r="121" spans="1:17">
-      <c r="B121" t="s">
-        <v>79</v>
-      </c>
       <c r="Q121" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3353,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C123" s="5">
         <v>59158</v>
@@ -3372,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C124" s="5">
         <v>59158</v>
@@ -3391,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C125" s="5">
         <v>59158</v>
@@ -3410,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C126" s="5">
         <v>59158</v>
@@ -3429,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C127" s="5">
         <v>59158</v>
@@ -3448,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C128" s="5">
         <v>59158</v>
@@ -3467,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C129" s="5">
         <v>59158</v>
@@ -3486,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C130" s="5">
         <v>59158</v>
@@ -3505,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C131" s="5">
         <v>59158</v>
@@ -3524,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C132" s="5">
         <v>59158</v>
@@ -3543,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C133" s="5">
         <v>59158</v>
@@ -3562,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C134" s="5">
         <v>59158</v>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -4,12 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
-    <sheet name="INSERT WILAYAH" sheetId="2" r:id="rId2"/>
+    <sheet name="USER" sheetId="5" r:id="rId2"/>
+    <sheet name="WILAYAH" sheetId="2" r:id="rId3"/>
+    <sheet name="BENCANA" sheetId="4" r:id="rId4"/>
+    <sheet name="BANTUAN" sheetId="3" r:id="rId5"/>
+    <sheet name="PELAPORAN" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="DAT" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BANTUAN!$B$87:$B$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BANTUAN!$B$1:$B$17</definedName>
+  </definedNames>
   <calcPr calcId="152511" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="359">
   <si>
     <t>user</t>
   </si>
@@ -175,57 +185,9 @@
     <t>PATI LOR</t>
   </si>
   <si>
-    <t> SIDOKERTO</t>
-  </si>
-  <si>
-    <t> NGARUS</t>
-  </si>
-  <si>
-    <t> WINONG</t>
-  </si>
-  <si>
-    <t> PLANGITAN</t>
-  </si>
-  <si>
-    <t> PURI</t>
-  </si>
-  <si>
-    <t> BLARU</t>
-  </si>
-  <si>
-    <t> PATI KIDUL</t>
-  </si>
-  <si>
-    <t> PATI WETAN</t>
-  </si>
-  <si>
-    <t> GAJAHMATI</t>
-  </si>
-  <si>
     <t> PANJUNAN</t>
   </si>
   <si>
-    <t> SEMAMPIR</t>
-  </si>
-  <si>
-    <t> KALIDORO</t>
-  </si>
-  <si>
-    <t> MUSTOKOHARJO</t>
-  </si>
-  <si>
-    <t> SIDOHARJO</t>
-  </si>
-  <si>
-    <t> KUTOHARJO</t>
-  </si>
-  <si>
-    <t> SARIREJO</t>
-  </si>
-  <si>
-    <t> DENGKEK</t>
-  </si>
-  <si>
     <t> GERITAN</t>
   </si>
   <si>
@@ -238,27 +200,6 @@
     <t> PARENGGAN</t>
   </si>
   <si>
-    <t> PAYANG</t>
-  </si>
-  <si>
-    <t> PURWOREJO</t>
-  </si>
-  <si>
-    <t> SINOMAN</t>
-  </si>
-  <si>
-    <t> SUGIHARJO</t>
-  </si>
-  <si>
-    <t> TAMBAHARJO</t>
-  </si>
-  <si>
-    <t> TAMBAHSARI</t>
-  </si>
-  <si>
-    <t> WIDOROKANDANG</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -527,13 +468,655 @@
   </si>
   <si>
     <t>TLUWAH</t>
+  </si>
+  <si>
+    <t>ajeng</t>
+  </si>
+  <si>
+    <t>pati</t>
+  </si>
+  <si>
+    <t>petugas_bpbd</t>
+  </si>
+  <si>
+    <t>dessy</t>
+  </si>
+  <si>
+    <t>kepala_bpbd</t>
+  </si>
+  <si>
+    <t>ayuk</t>
+  </si>
+  <si>
+    <t>masyarakat</t>
+  </si>
+  <si>
+    <t>avita</t>
+  </si>
+  <si>
+    <t>petugas_logistik</t>
+  </si>
+  <si>
+    <t>ifa</t>
+  </si>
+  <si>
+    <t>petugas_kajian</t>
+  </si>
+  <si>
+    <t>Syafira Indah Purnama Sari</t>
+  </si>
+  <si>
+    <t>Dyah Ayu Sukmaningtyas</t>
+  </si>
+  <si>
+    <t>Linda Noviana</t>
+  </si>
+  <si>
+    <t>Fikie Fauziah</t>
+  </si>
+  <si>
+    <t>Miftakhul Wahyu Rizki</t>
+  </si>
+  <si>
+    <t>Dessy Adelia</t>
+  </si>
+  <si>
+    <t>Rena Afida</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Lutfir Rahman</t>
+  </si>
+  <si>
+    <t>lutfir</t>
+  </si>
+  <si>
+    <t>syafira</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>Melania Indah Wulandari</t>
+  </si>
+  <si>
+    <t>melania</t>
+  </si>
+  <si>
+    <t>fikie</t>
+  </si>
+  <si>
+    <t>Aditya Wahyu Pradana</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>miftakhul</t>
+  </si>
+  <si>
+    <t>Chalim Riza Dhona</t>
+  </si>
+  <si>
+    <t>riza</t>
+  </si>
+  <si>
+    <t>Rizky Diah Permata Sari</t>
+  </si>
+  <si>
+    <t>rizky</t>
+  </si>
+  <si>
+    <t>rena</t>
+  </si>
+  <si>
+    <t>Rahajeng Wulansari</t>
+  </si>
+  <si>
+    <t>Avita Firdani</t>
+  </si>
+  <si>
+    <t>Siti Ifa Setiana</t>
+  </si>
+  <si>
+    <t>WIDOROKANDANG</t>
+  </si>
+  <si>
+    <t>TAMBAHSARI</t>
+  </si>
+  <si>
+    <t>TAMBAHARJO</t>
+  </si>
+  <si>
+    <t>SINOMAN</t>
+  </si>
+  <si>
+    <t>PURWOREJO</t>
+  </si>
+  <si>
+    <t>PAYANG</t>
+  </si>
+  <si>
+    <t>SUGIHARJO</t>
+  </si>
+  <si>
+    <t>SIDOKERTO</t>
+  </si>
+  <si>
+    <t>NGARUS</t>
+  </si>
+  <si>
+    <t>WINONG</t>
+  </si>
+  <si>
+    <t>PLANGITAN</t>
+  </si>
+  <si>
+    <t>PURI</t>
+  </si>
+  <si>
+    <t>BLARU</t>
+  </si>
+  <si>
+    <t>PATI KIDUL</t>
+  </si>
+  <si>
+    <t>PATI WETAN</t>
+  </si>
+  <si>
+    <t>GAJAHMATI</t>
+  </si>
+  <si>
+    <t>SEMAMPIR</t>
+  </si>
+  <si>
+    <t>KALIDORO</t>
+  </si>
+  <si>
+    <t>MUSTOKOHARJO</t>
+  </si>
+  <si>
+    <t>KUTOHARJO</t>
+  </si>
+  <si>
+    <t>SARIREJO</t>
+  </si>
+  <si>
+    <t>DENGKEK</t>
+  </si>
+  <si>
+    <t>Kebanjiran karena tanggul jebol</t>
+  </si>
+  <si>
+    <t>tervalidasi</t>
+  </si>
+  <si>
+    <t>link_map</t>
+  </si>
+  <si>
+    <t>Tanah Longsor</t>
+  </si>
+  <si>
+    <t>Gempa Bumi</t>
+  </si>
+  <si>
+    <t>Angin Putting Beliung</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>Karung Plastik</t>
+  </si>
+  <si>
+    <t>Kantong Jenazah</t>
+  </si>
+  <si>
+    <t>Tenda Gulung</t>
+  </si>
+  <si>
+    <t>Triplek</t>
+  </si>
+  <si>
+    <t>Seng</t>
+  </si>
+  <si>
+    <t>Paku Payung</t>
+  </si>
+  <si>
+    <t>Paku Usuk</t>
+  </si>
+  <si>
+    <t>Paku Reng</t>
+  </si>
+  <si>
+    <t>Tanah Urug</t>
+  </si>
+  <si>
+    <t>Kawat Bronjong</t>
+  </si>
+  <si>
+    <t>Batu Belah</t>
+  </si>
+  <si>
+    <t>Seng Bergelombang</t>
+  </si>
+  <si>
+    <t>Plastik Mika Penutup Longsor</t>
+  </si>
+  <si>
+    <t>Genteng</t>
+  </si>
+  <si>
+    <t>Kerpus</t>
+  </si>
+  <si>
+    <t>Semen</t>
+  </si>
+  <si>
+    <t>Batu Bata</t>
+  </si>
+  <si>
+    <t>Pasir</t>
+  </si>
+  <si>
+    <t>SANDANG</t>
+  </si>
+  <si>
+    <t>Selimut</t>
+  </si>
+  <si>
+    <t>Selimut Lurik</t>
+  </si>
+  <si>
+    <t>Jarik</t>
+  </si>
+  <si>
+    <t>Sarung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarung </t>
+  </si>
+  <si>
+    <t>Kelambu</t>
+  </si>
+  <si>
+    <t>Baju anak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaos dalam laki - laki </t>
+  </si>
+  <si>
+    <t>Celana dalam wanita</t>
+  </si>
+  <si>
+    <t>Daster</t>
+  </si>
+  <si>
+    <t>Kaos untuk relawan</t>
+  </si>
+  <si>
+    <t>Seragam Relawan</t>
+  </si>
+  <si>
+    <t>Paket Sandang</t>
+  </si>
+  <si>
+    <t>Kid Ware</t>
+  </si>
+  <si>
+    <t>Kids Ware</t>
+  </si>
+  <si>
+    <t>Family Kit</t>
+  </si>
+  <si>
+    <t>Peralatan Dapur / Food ware</t>
+  </si>
+  <si>
+    <t>Peralatan Kesehatan Rumah Tangga</t>
+  </si>
+  <si>
+    <t>Peralatan Kesehatan/Kebersihan</t>
+  </si>
+  <si>
+    <t>Perlengkapan Sekolah</t>
+  </si>
+  <si>
+    <t>Perlengkapan Makan</t>
+  </si>
+  <si>
+    <t>Kantong Mayat</t>
+  </si>
+  <si>
+    <t>Paket Rekreasional</t>
+  </si>
+  <si>
+    <t>Medical kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tikar </t>
+  </si>
+  <si>
+    <t>Tikar</t>
+  </si>
+  <si>
+    <t>Paket Seragam PA</t>
+  </si>
+  <si>
+    <t>Paket Seragam PI</t>
+  </si>
+  <si>
+    <t>Tas Sekolah</t>
+  </si>
+  <si>
+    <t>Pakaian Seragam SD PA</t>
+  </si>
+  <si>
+    <t>Pakaian Seragam SD PI</t>
+  </si>
+  <si>
+    <t>Handuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panci </t>
+  </si>
+  <si>
+    <t>Brosur Kebencanaan</t>
+  </si>
+  <si>
+    <t>Sepatu Boot</t>
+  </si>
+  <si>
+    <t>Jas Hujan</t>
+  </si>
+  <si>
+    <t>Webbing</t>
+  </si>
+  <si>
+    <t>Buku Cerita</t>
+  </si>
+  <si>
+    <t>Buku Saku Kebencanaan</t>
+  </si>
+  <si>
+    <t>Tas Tahan Air</t>
+  </si>
+  <si>
+    <t>Tas Penyimpan Dokumen Penting</t>
+  </si>
+  <si>
+    <t>Pembalut Laurier</t>
+  </si>
+  <si>
+    <t>Pembalut Charm</t>
+  </si>
+  <si>
+    <t>Pembalut</t>
+  </si>
+  <si>
+    <t>Pempers</t>
+  </si>
+  <si>
+    <t>Pampers M</t>
+  </si>
+  <si>
+    <t>Pempers L</t>
+  </si>
+  <si>
+    <t>Pampers S</t>
+  </si>
+  <si>
+    <t>Pampers</t>
+  </si>
+  <si>
+    <t>Linggis</t>
+  </si>
+  <si>
+    <t>Cangkul</t>
+  </si>
+  <si>
+    <t>Skop</t>
+  </si>
+  <si>
+    <t>Garpu</t>
+  </si>
+  <si>
+    <t>Parang</t>
+  </si>
+  <si>
+    <t>Helmet Font Brim Ventedorange</t>
+  </si>
+  <si>
+    <t>Helmet Front Brim Orange</t>
+  </si>
+  <si>
+    <t>Sarung Tangan Latex Yellow</t>
+  </si>
+  <si>
+    <t>Sarung Tangan Glove Blue Leather</t>
+  </si>
+  <si>
+    <t>Sarung Tangan Kain</t>
+  </si>
+  <si>
+    <t>Masker</t>
+  </si>
+  <si>
+    <t>Troly</t>
+  </si>
+  <si>
+    <t>Hygiene Kit</t>
+  </si>
+  <si>
+    <t>MAKANAN DAN MINUMAN</t>
+  </si>
+  <si>
+    <t>Air Mineral</t>
+  </si>
+  <si>
+    <t>Air Mineral Botol</t>
+  </si>
+  <si>
+    <t>Air Mineral Gelas</t>
+  </si>
+  <si>
+    <t>Beras</t>
+  </si>
+  <si>
+    <t>Gula Pasir</t>
+  </si>
+  <si>
+    <t>Lauk Pauk</t>
+  </si>
+  <si>
+    <t>Minyak Goreng</t>
+  </si>
+  <si>
+    <t>Mie Instan</t>
+  </si>
+  <si>
+    <t>Bubur Sun @24</t>
+  </si>
+  <si>
+    <t>Bubur Sun @24 (Makanan Balita)</t>
+  </si>
+  <si>
+    <t>Makanan Balita</t>
+  </si>
+  <si>
+    <t>Susu Anak/Balita</t>
+  </si>
+  <si>
+    <t>Susu Kaleng</t>
+  </si>
+  <si>
+    <t>Kecap</t>
+  </si>
+  <si>
+    <t>Tambahan Gizi</t>
+  </si>
+  <si>
+    <t>Saos</t>
+  </si>
+  <si>
+    <t>Teh Serbuk</t>
+  </si>
+  <si>
+    <t>Teh Celup</t>
+  </si>
+  <si>
+    <t>Kopi Susu</t>
+  </si>
+  <si>
+    <t>Kopi Instan</t>
+  </si>
+  <si>
+    <t>Sarden</t>
+  </si>
+  <si>
+    <t>Siap Saji</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Daging Kaleng</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Lembar</t>
+  </si>
+  <si>
+    <t>Ons</t>
+  </si>
+  <si>
+    <t>m³</t>
+  </si>
+  <si>
+    <t>Biji</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Buah</t>
+  </si>
+  <si>
+    <t>Sak</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>dos</t>
+  </si>
+  <si>
+    <t>Dus</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>Kaleng</t>
+  </si>
+  <si>
+    <t>Botol</t>
+  </si>
+  <si>
+    <t>Sachet</t>
+  </si>
+  <si>
+    <t>Banjir dan Tanah longsor</t>
+  </si>
+  <si>
+    <t>Banjir</t>
+  </si>
+  <si>
+    <t>Abrasi</t>
+  </si>
+  <si>
+    <t>Puting Beliung</t>
+  </si>
+  <si>
+    <t>Kekeringan</t>
+  </si>
+  <si>
+    <t>Kebakaran Hutan dan Lahan</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t>Gempa Bumi dan Tsunami</t>
+  </si>
+  <si>
+    <t>Letusan Gunung Api</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t>Wabah Penyakit</t>
+  </si>
+  <si>
+    <t>Pohon Tumbang</t>
+  </si>
+  <si>
+    <t>Angin Kencang</t>
+  </si>
+  <si>
+    <t>Rumah Tertimpa Pohon Akibat Angin Kencang Disertai Hujan Deras</t>
+  </si>
+  <si>
+    <t>Orang Tenggelam</t>
+  </si>
+  <si>
+    <t>Pondokan Roboh</t>
+  </si>
+  <si>
+    <t>Kebakaran Rumah</t>
+  </si>
+  <si>
+    <t>Evakuasi Sarang Tawon</t>
+  </si>
+  <si>
+    <t>Tebing Longsor</t>
+  </si>
+  <si>
+    <t>Kebakaran</t>
+  </si>
+  <si>
+    <t>Orang Hilang di perairan ( Hilang Kontak )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +1151,24 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -583,7 +1184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -617,11 +1218,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,11 +1252,461 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1120,7 +2186,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="G10" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +2197,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES ("&amp;A1&amp;",'"&amp;B1&amp;"','"&amp;C1&amp;"','"&amp;D1&amp;"','"&amp;E1&amp;"','"&amp;F1&amp;"','"&amp;G1&amp;"')"</f>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (id,'nama_user','alamat_user','no_telp_user','username','password','level')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="8">
+        <v>893456745</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I16" si="0">"INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"')"</f>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (1,'Rahajeng Wulansari','pati','893456745','ajeng','ajeng','petugas_bpbd')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="8">
+        <v>893456745</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (2,'Dessy Adelia','pati','893456745','dessy','dessy','kepala_bpbd')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8934566547</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (3,'Dyah Ayu Sukmaningtyas','pati','8934566547','ayuk','ayuk','masyarakat')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="8">
+        <v>893456734</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (4,'Avita Firdani','pati','893456734','avita','avita','petugas_logistik')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8934567534</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (5,'Siti Ifa Setiana','pati','8934567534','ifa','ifa','petugas_kajian')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8934567535</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (6,'Syafira Indah Purnama Sari','pati','8934567535','syafira','syafira','masyarakat')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8934567536</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (7,'Lutfir Rahman','pati','8934567536','lutfir','lutfir','masyarakat')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8934567537</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (8,'Linda Noviana','pati','8934567537','linda','linda','masyarakat')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8934567538</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (9,'Melania Indah Wulandari','pati','8934567538','melania','melania','masyarakat')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8934567539</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (10,'Fikie Fauziah','pati','8934567539','fikie','fikie','masyarakat')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8934567540</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (11,'Aditya Wahyu Pradana','pati','8934567540','aditya','aditya','masyarakat')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8934567541</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (12,'Miftakhul Wahyu Rizki','pati','8934567541','miftakhul','miftakhul','masyarakat')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8934567542</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (13,'Chalim Riza Dhona','pati','8934567542','riza','riza','masyarakat')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8934567543</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (14,'Rizky Diah Permata Sari','pati','8934567543','rizky','rizky','masyarakat')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="8">
+        <v>8934567544</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES (15,'Rena Afida','pati','8934567544','rena','rena','masyarakat')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123:E134"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,18 +2699,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5">
         <v>59111</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E30" si="0">"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SIDOKERTO','59111');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SIDOKERTO','59111');</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q66" si="1">UPPER(B3)</f>
-        <v> SIDOKERTO</v>
+        <v>SIDOKERTO</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
@@ -1196,18 +2718,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5">
         <v>59112</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' NGARUS','59112');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','NGARUS','59112');</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="1"/>
-        <v> NGARUS</v>
+        <v>NGARUS</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
@@ -1215,18 +2737,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5">
         <v>59112</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' WINONG','59112');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','WINONG','59112');</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="1"/>
-        <v> WINONG</v>
+        <v>WINONG</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
@@ -1234,18 +2756,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="C6" s="5">
         <v>59113</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PLANGITAN','59113');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PLANGITAN','59113');</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="1"/>
-        <v> PLANGITAN</v>
+        <v>PLANGITAN</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
@@ -1253,18 +2775,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5">
         <v>59113</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PURI','59113');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PURI','59113');</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v> PURI</v>
+        <v>PURI</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1">
@@ -1272,18 +2794,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="C8" s="5">
         <v>59114</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' BLARU','59114');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','BLARU','59114');</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v> BLARU</v>
+        <v>BLARU</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
@@ -1291,18 +2813,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5">
         <v>59114</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PATI KIDUL','59114');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI KIDUL','59114');</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v> PATI KIDUL</v>
+        <v>PATI KIDUL</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
@@ -1310,18 +2832,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5">
         <v>59115</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PATI WETAN','59115');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI WETAN','59115');</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v> PATI WETAN</v>
+        <v>PATI WETAN</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
@@ -1329,18 +2851,18 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="C11" s="5">
         <v>59116</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' GAJAHMATI','59116');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','GAJAHMATI','59116');</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="1"/>
-        <v> GAJAHMATI</v>
+        <v>GAJAHMATI</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
@@ -1348,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5">
         <v>59116</v>
@@ -1367,18 +2889,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="C13" s="5">
         <v>59116</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SEMAMPIR','59116');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SEMAMPIR','59116');</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="1"/>
-        <v> SEMAMPIR</v>
+        <v>SEMAMPIR</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
@@ -1386,18 +2908,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="C14" s="5">
         <v>59117</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' KALIDORO','59117');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','KALIDORO','59117');</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="1"/>
-        <v> KALIDORO</v>
+        <v>KALIDORO</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
@@ -1405,18 +2927,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="C15" s="5">
         <v>59117</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' MUSTOKOHARJO','59117');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','MUSTOKOHARJO','59117');</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="1"/>
-        <v> MUSTOKOHARJO</v>
+        <v>MUSTOKOHARJO</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
@@ -1424,18 +2946,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" s="5">
         <v>59117</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SIDOHARJO','59117');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SIDOHARJO','59117');</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="1"/>
-        <v> SIDOHARJO</v>
+        <v>SIDOHARJO</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1">
@@ -1443,18 +2965,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C17" s="5">
         <v>59118</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' KUTOHARJO','59118');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','KUTOHARJO','59118');</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v> KUTOHARJO</v>
+        <v>KUTOHARJO</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
@@ -1462,18 +2984,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="C18" s="5">
         <v>59118</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SARIREJO','59118');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SARIREJO','59118');</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="1"/>
-        <v> SARIREJO</v>
+        <v>SARIREJO</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
@@ -1481,18 +3003,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="C19" s="5">
         <v>59119</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' DENGKEK','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','DENGKEK','59119');</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="1"/>
-        <v> DENGKEK</v>
+        <v>DENGKEK</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1">
@@ -1500,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
         <v>59119</v>
@@ -1519,7 +3041,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <v>59119</v>
@@ -1538,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <v>59119</v>
@@ -1557,7 +3079,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5">
         <v>59119</v>
@@ -1576,18 +3098,18 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="C24" s="5">
         <v>59119</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PAYANG','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PAYANG','59119');</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="1"/>
-        <v> PAYANG</v>
+        <v>PAYANG</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1">
@@ -1595,18 +3117,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C25" s="5">
         <v>59119</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PURWOREJO','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PURWOREJO','59119');</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="1"/>
-        <v> PURWOREJO</v>
+        <v>PURWOREJO</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1">
@@ -1614,18 +3136,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C26" s="5">
         <v>59119</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SINOMAN','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SINOMAN','59119');</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="1"/>
-        <v> SINOMAN</v>
+        <v>SINOMAN</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1">
@@ -1633,18 +3155,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C27" s="5">
         <v>59119</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' SUGIHARJO','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SUGIHARJO','59119');</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="1"/>
-        <v> SUGIHARJO</v>
+        <v>SUGIHARJO</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
@@ -1652,18 +3174,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C28" s="5">
         <v>59119</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' TAMBAHARJO','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','TAMBAHARJO','59119');</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="1"/>
-        <v> TAMBAHARJO</v>
+        <v>TAMBAHARJO</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
@@ -1671,42 +3193,42 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C29" s="5">
         <v>59119</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' TAMBAHSARI','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','TAMBAHSARI','59119');</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="1"/>
-        <v> TAMBAHSARI</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="26.25" thickBot="1">
+        <v>TAMBAHSARI</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C30" s="5">
         <v>59119</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' WIDOROKANDANG','59119');</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','WIDOROKANDANG','59119');</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="1"/>
-        <v> WIDOROKANDANG</v>
+        <v>WIDOROKANDANG</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="1"/>
@@ -1715,7 +3237,7 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="1"/>
@@ -1746,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5">
         <v>59152</v>
@@ -1765,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5">
         <v>59152</v>
@@ -1784,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5">
         <v>59152</v>
@@ -1803,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5">
         <v>59152</v>
@@ -1822,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5">
         <v>59152</v>
@@ -1841,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5">
         <v>59152</v>
@@ -1860,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5">
         <v>59152</v>
@@ -1879,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C41" s="5">
         <v>59152</v>
@@ -1898,7 +3420,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5">
         <v>59152</v>
@@ -1917,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5">
         <v>59152</v>
@@ -1936,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5">
         <v>59152</v>
@@ -1955,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C45" s="5">
         <v>59152</v>
@@ -1974,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5">
         <v>59152</v>
@@ -1993,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5">
         <v>59152</v>
@@ -2012,7 +3534,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C48" s="5">
         <v>59152</v>
@@ -2031,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C49" s="5">
         <v>59152</v>
@@ -2050,7 +3572,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5">
         <v>59152</v>
@@ -2069,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5">
         <v>59152</v>
@@ -2085,7 +3607,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="B52" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="1"/>
@@ -2094,7 +3616,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="B53" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="1"/>
@@ -2103,7 +3625,7 @@
     </row>
     <row r="54" spans="1:17" ht="15.75" thickBot="1">
       <c r="B54" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="1"/>
@@ -2115,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C55" s="5">
         <v>59163</v>
@@ -2134,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C56" s="5">
         <v>59163</v>
@@ -2153,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C57" s="5">
         <v>59163</v>
@@ -2172,7 +3694,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C58" s="5">
         <v>59163</v>
@@ -2191,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C59" s="5">
         <v>59163</v>
@@ -2210,7 +3732,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5">
         <v>59163</v>
@@ -2229,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C61" s="5">
         <v>59163</v>
@@ -2248,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5">
         <v>59163</v>
@@ -2267,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5">
         <v>59163</v>
@@ -2286,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C64" s="5">
         <v>59163</v>
@@ -2305,7 +3827,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C65" s="5">
         <v>59163</v>
@@ -2324,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C66" s="5">
         <v>59163</v>
@@ -2343,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C67" s="5">
         <v>59163</v>
@@ -2362,7 +3884,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C68" s="5">
         <v>59163</v>
@@ -2381,7 +3903,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C69" s="5">
         <v>59163</v>
@@ -2400,7 +3922,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C70" s="5">
         <v>59163</v>
@@ -2419,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C71" s="5">
         <v>59163</v>
@@ -2438,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C72" s="5">
         <v>59163</v>
@@ -2454,7 +3976,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="B73" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="4"/>
@@ -2463,7 +3985,7 @@
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1">
       <c r="B74" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="4"/>
@@ -2475,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C75" s="5">
         <v>59153</v>
@@ -2494,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C76" s="5">
         <v>59153</v>
@@ -2513,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C77" s="5">
         <v>59153</v>
@@ -2532,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C78" s="5">
         <v>59153</v>
@@ -2551,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C79" s="5">
         <v>59153</v>
@@ -2570,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C80" s="5">
         <v>59153</v>
@@ -2589,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C81" s="5">
         <v>59153</v>
@@ -2608,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C82" s="5">
         <v>59153</v>
@@ -2627,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C83" s="5">
         <v>59153</v>
@@ -2646,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C84" s="5">
         <v>59153</v>
@@ -2665,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C85" s="5">
         <v>59153</v>
@@ -2684,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C86" s="5">
         <v>59153</v>
@@ -2703,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C87" s="5">
         <v>59153</v>
@@ -2722,7 +4244,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C88" s="5">
         <v>59153</v>
@@ -2741,7 +4263,7 @@
         <v>15</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C89" s="5">
         <v>59153</v>
@@ -2760,7 +4282,7 @@
         <v>16</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C90" s="5">
         <v>59153</v>
@@ -2776,7 +4298,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="B91" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q91" t="str">
         <f t="shared" si="4"/>
@@ -2785,7 +4307,7 @@
     </row>
     <row r="92" spans="1:17" ht="15.75" thickBot="1">
       <c r="B92" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q92" t="str">
         <f t="shared" si="4"/>
@@ -2797,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C93" s="5">
         <v>59185</v>
@@ -2816,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C94" s="5">
         <v>59185</v>
@@ -2835,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C95" s="5">
         <v>59185</v>
@@ -2854,7 +4376,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C96" s="5">
         <v>59185</v>
@@ -2873,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C97" s="5">
         <v>59185</v>
@@ -2892,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C98" s="5">
         <v>59185</v>
@@ -2911,7 +4433,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C99" s="5">
         <v>59185</v>
@@ -2930,7 +4452,7 @@
         <v>8</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C100" s="5">
         <v>59185</v>
@@ -2949,7 +4471,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C101" s="5">
         <v>59185</v>
@@ -2968,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C102" s="5">
         <v>59185</v>
@@ -2987,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C103" s="5">
         <v>59185</v>
@@ -3006,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C104" s="5">
         <v>59185</v>
@@ -3025,7 +4547,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C105" s="5">
         <v>59185</v>
@@ -3044,7 +4566,7 @@
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C106" s="5">
         <v>59185</v>
@@ -3063,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C107" s="5">
         <v>59185</v>
@@ -3082,7 +4604,7 @@
         <v>16</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C108" s="5">
         <v>59185</v>
@@ -3101,7 +4623,7 @@
         <v>17</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C109" s="5">
         <v>59185</v>
@@ -3120,7 +4642,7 @@
         <v>18</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C110" s="5">
         <v>59185</v>
@@ -3139,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C111" s="5">
         <v>59185</v>
@@ -3158,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C112" s="5">
         <v>59185</v>
@@ -3177,7 +4699,7 @@
         <v>21</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C113" s="5">
         <v>59185</v>
@@ -3196,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C114" s="5">
         <v>59185</v>
@@ -3215,7 +4737,7 @@
         <v>23</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C115" s="5">
         <v>59185</v>
@@ -3234,7 +4756,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C116" s="5">
         <v>59185</v>
@@ -3253,7 +4775,7 @@
         <v>25</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C117" s="5">
         <v>59185</v>
@@ -3272,7 +4794,7 @@
         <v>26</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C118" s="5">
         <v>59185</v>
@@ -3291,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C119" s="5">
         <v>59185</v>
@@ -3310,7 +4832,7 @@
         <v>28</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C120" s="5">
         <v>59185</v>
@@ -3332,7 +4854,7 @@
     </row>
     <row r="122" spans="1:17" ht="15.75" thickBot="1">
       <c r="B122" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" si="4"/>
@@ -3344,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C123" s="5">
         <v>59158</v>
@@ -3363,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C124" s="5">
         <v>59158</v>
@@ -3382,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C125" s="5">
         <v>59158</v>
@@ -3401,7 +4923,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C126" s="5">
         <v>59158</v>
@@ -3420,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C127" s="5">
         <v>59158</v>
@@ -3439,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C128" s="5">
         <v>59158</v>
@@ -3458,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C129" s="5">
         <v>59158</v>
@@ -3477,7 +4999,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C130" s="5">
         <v>59158</v>
@@ -3496,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C131" s="5">
         <v>59158</v>
@@ -3515,7 +5037,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C132" s="5">
         <v>59158</v>
@@ -3534,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C133" s="5">
         <v>59158</v>
@@ -3553,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C134" s="5">
         <v>59158</v>
@@ -3569,7 +5091,7 @@
     </row>
     <row r="135" spans="1:17">
       <c r="B135" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q135" t="str">
         <f t="shared" si="8"/>
@@ -3578,7 +5100,7 @@
     </row>
     <row r="136" spans="1:17">
       <c r="B136" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q136" t="str">
         <f t="shared" si="8"/>
@@ -3587,7 +5109,7 @@
     </row>
     <row r="137" spans="1:17">
       <c r="B137" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q137" t="str">
         <f t="shared" si="8"/>
@@ -3597,4 +5119,2342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT bencana (id_bencana, nama_bencana) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (1, 'Banjir');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D25" si="0">"INSERT bencana (id_bencana, nama_bencana) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (2, 'Tanah Longsor');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (3, 'Banjir dan Tanah longsor');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (4, 'Abrasi');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (5, 'Puting Beliung');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (6, 'Kekeringan');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (7, 'Kebakaran');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (8, 'Kebakaran Hutan dan Lahan');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (9, 'Gempa Bumi');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (10, 'Tsunami');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (11, 'Gempa Bumi dan Tsunami');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (12, 'Letusan Gunung Api');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (13, 'Wabah Penyakit');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (14, 'Pohon Tumbang');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (15, 'Angin Kencang');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (16, 'Rumah Tertimpa Pohon Akibat Angin Kencang Disertai Hujan Deras');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (17, 'Pohon Tumbang');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (18, 'Orang Tenggelam');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (19, 'Pondokan Roboh');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (20, 'Kebakaran Rumah');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (21, 'Evakuasi Sarang Tawon');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (22, 'Tebing Longsor');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (23, 'Orang Hilang di perairan ( Hilang Kontak )');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (24, 'Lainnya');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','MATERIAL','"&amp;C2&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (1,'Karung Plastik','MATERIAL','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D17" si="0">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','MATERIAL','"&amp;C3&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (2,'Triplek','MATERIAL','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (3,'Seng','MATERIAL','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (4,'Paku Payung','MATERIAL','Ons','[value-5]')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (5,'Paku Usuk','MATERIAL','Ons','[value-5]')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (6,'Paku Reng','MATERIAL','Ons','[value-5]')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (7,'Tanah Urug','MATERIAL','m³','[value-5]')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (8,'Kawat Bronjong','MATERIAL','Biji','[value-5]')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (9,'Batu Belah','MATERIAL','m³','[value-5]')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (10,'Seng Bergelombang','MATERIAL','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (11,'Plastik Mika Penutup Longsor','MATERIAL','Roll','[value-5]')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (12,'Genteng','MATERIAL','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (13,'Kerpus','MATERIAL','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (14,'Semen','MATERIAL','Sak','[value-5]')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (15,'Batu Bata','MATERIAL','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A17&amp;",'"&amp;B17&amp;"','MATERIAL','"&amp;C17&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (16,'Pasir','MATERIAL','m³','[value-5]')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A20&amp;",'"&amp;B20&amp;"','SANDANG','"&amp;C20&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (17,'Selimut','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D84" si="1">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A21&amp;",'"&amp;B21&amp;"','SANDANG','"&amp;C21&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (18,'Selimut Lurik','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (19,'Jarik','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (20,'Sarung','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (21,'Kelambu','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (22,'Baju anak','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (23,'Kaos dalam laki - laki ','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (24,'Celana dalam wanita','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (25,'Daster','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (26,'Kaos untuk relawan','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (27,'Seragam Relawan','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (28,'Paket Sandang','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (29,'Kid Ware','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (30,'Kids Ware','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (31,'Family Kit','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (32,'Peralatan Dapur / Food ware','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (33,'Peralatan Kesehatan Rumah Tangga','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (34,'Peralatan Kesehatan/Kebersihan','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (35,'Perlengkapan Sekolah','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (36,'Perlengkapan Makan','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (37,'Kantong Mayat','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (38,'Kantong Jenazah','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (39,'Paket Rekreasional','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (40,'Medical kit','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>321</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (41,'Matras ','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (42,'Tikar ','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (43,'Tenda Gulung','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (44,'Paket Seragam PA','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (45,'Paket Seragam PI','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (46,'Tas Sekolah','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (47,'Pakaian Seragam SD PA','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (48,'Pakaian Seragam SD PI','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (49,'Handuk','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (50,'Wajan ','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (51,'Panci ','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (52,'Brosur Kebencanaan','SANDANG','Lembar','[value-5]')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (53,'Sepatu Boot','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" t="s">
+        <v>326</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (54,'Jas Hujan','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (55,'Webbing','SANDANG','Roll','[value-5]')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (56,'Buku Cerita','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (57,'Buku Saku Kebencanaan','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (58,'Tas Tahan Air','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (59,'Tas Penyimpan Dokumen Penting','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C63" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (60,'Pembalut Charm','SANDANG','Pack','[value-5]')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (61,'Pembalut Laurier','SANDANG','Pack','[value-5]')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (62,'Pembalut','SANDANG','Pack','[value-5]')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (63,'Pempers','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" t="s">
+        <v>326</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (64,'Pampers M','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (65,'Pempers L','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (66,'Pampers S','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (67,'Pampers','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (68,'Linggis','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (69,'Cangkul','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>326</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (70,'Skop','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (71,'Garpu','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (72,'Parang','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (73,'Helmet Font Brim Ventedorange','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (74,'Helmet Front Brim Orange','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (75,'Sarung Tangan Latex Yellow','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (76,'Sarung Tangan Glove Blue Leather','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (77,'Sarung Tangan Kain','SANDANG','dos','[value-5]')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (78,'Masker','SANDANG','dos','[value-5]')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (79,'Troly','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (80,'Hygiene Kit','SANDANG','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (81,'Sarung ','SANDANG','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" ref="D85:D88" si="2">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A85&amp;",'"&amp;B85&amp;"','SANDANG','"&amp;C85&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (82,'Tikar','SANDANG','Pcs','[value-5]')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" t="str">
+        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A88&amp;",'"&amp;B88&amp;"','MAKANAN DAN MINUMAN','"&amp;C88&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (83,'Air Mineral','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" ref="D89:D111" si="3">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A89&amp;",'"&amp;B89&amp;"','MAKANAN DAN MINUMAN','"&amp;C89&amp;"','[value-5]')"</f>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (84,'Air Mineral Botol','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (85,'Air Mineral Gelas','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (86,'Beras','MAKANAN DAN MINUMAN','Kg','[value-5]')</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (87,'Gula Pasir','MAKANAN DAN MINUMAN','Kg','[value-5]')</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (88,'Lauk Pauk','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (89,'Minyak Goreng','MAKANAN DAN MINUMAN','Liter','[value-5]')</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C95" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (90,'Mie Instan','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (91,'Bubur Sun @24','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (92,'Bubur Sun @24 (Makanan Balita)','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (93,'Makanan Balita','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (94,'Susu Anak/Balita','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (95,'Susu Kaleng','MAKANAN DAN MINUMAN','Kaleng','[value-5]')</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (96,'Kecap','MAKANAN DAN MINUMAN','Botol','[value-5]')</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" t="s">
+        <v>329</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (97,'Tambahan Gizi','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (98,'Saos','MAKANAN DAN MINUMAN','Botol','[value-5]')</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>326</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (99,'Teh Serbuk','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (100,'Teh Celup','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (101,'Kopi Susu','MAKANAN DAN MINUMAN','Sachet','[value-5]')</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" t="s">
+        <v>337</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (102,'Kopi Instan','MAKANAN DAN MINUMAN','Sachet','[value-5]')</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (103,'Sarden','MAKANAN DAN MINUMAN','Kaleng','[value-5]')</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (104,'Siap Saji','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (105,'Yogurt','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (106,'Daging Kaleng','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B83">
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B85">
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:B111">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
+        <v>44928</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12">
+        <v>44929</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44930</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44931</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="12">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="12">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12">
+        <v>44954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="12">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="12">
+        <v>44957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D8:E80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:5">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="14"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <autoFilter ref="A1:C1"/>
+  <conditionalFormatting sqref="C40:C49">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C49">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -1114,7 +1114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1265,8 +1265,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1275,67 +1275,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1438,251 +1378,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5125,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5151,8 +4851,8 @@
         <v>339</v>
       </c>
       <c r="D2" t="str">
-        <f>"INSERT bencana (id_bencana, nama_bencana) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (1, 'Banjir');</v>
+        <f>"INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (1, 'Banjir');</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5163,8 +4863,8 @@
         <v>208</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D25" si="0">"INSERT bencana (id_bencana, nama_bencana) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (2, 'Tanah Longsor');</v>
+        <f t="shared" ref="D3:D25" si="0">"INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (2, 'Tanah Longsor');</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5176,7 +4876,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (3, 'Banjir dan Tanah longsor');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (3, 'Banjir dan Tanah longsor');</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5188,7 +4888,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (4, 'Abrasi');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (4, 'Abrasi');</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5200,7 +4900,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (5, 'Puting Beliung');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (5, 'Puting Beliung');</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5212,7 +4912,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (6, 'Kekeringan');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (6, 'Kekeringan');</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5224,7 +4924,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (7, 'Kebakaran');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (7, 'Kebakaran');</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5236,7 +4936,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (8, 'Kebakaran Hutan dan Lahan');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (8, 'Kebakaran Hutan dan Lahan');</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5248,7 +4948,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (9, 'Gempa Bumi');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (9, 'Gempa Bumi');</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5260,7 +4960,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (10, 'Tsunami');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (10, 'Tsunami');</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5272,7 +4972,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (11, 'Gempa Bumi dan Tsunami');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (11, 'Gempa Bumi dan Tsunami');</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5284,7 +4984,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (12, 'Letusan Gunung Api');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (12, 'Letusan Gunung Api');</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5296,7 +4996,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (13, 'Wabah Penyakit');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (13, 'Wabah Penyakit');</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5308,7 +5008,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (14, 'Pohon Tumbang');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (14, 'Pohon Tumbang');</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5320,7 +5020,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (15, 'Angin Kencang');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (15, 'Angin Kencang');</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5332,7 +5032,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (16, 'Rumah Tertimpa Pohon Akibat Angin Kencang Disertai Hujan Deras');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (16, 'Rumah Tertimpa Pohon Akibat Angin Kencang Disertai Hujan Deras');</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5344,7 +5044,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (17, 'Pohon Tumbang');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (17, 'Pohon Tumbang');</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5356,7 +5056,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (18, 'Orang Tenggelam');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (18, 'Orang Tenggelam');</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5368,7 +5068,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (19, 'Pondokan Roboh');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (19, 'Pondokan Roboh');</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5380,7 +5080,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (20, 'Kebakaran Rumah');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (20, 'Kebakaran Rumah');</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5392,7 +5092,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (21, 'Evakuasi Sarang Tawon');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (21, 'Evakuasi Sarang Tawon');</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5404,7 +5104,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (22, 'Tebing Longsor');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (22, 'Tebing Longsor');</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5416,7 +5116,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (23, 'Orang Hilang di perairan ( Hilang Kontak )');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (23, 'Orang Hilang di perairan ( Hilang Kontak )');</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5428,7 +5128,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT bencana (id_bencana, nama_bencana) VALUES (24, 'Lainnya');</v>
+        <v>INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES (24, 'Lainnya');</v>
       </c>
     </row>
   </sheetData>
@@ -5440,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5469,8 +5169,8 @@
         <v>321</v>
       </c>
       <c r="D2" t="str">
-        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','MATERIAL','"&amp;C2&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (1,'Karung Plastik','MATERIAL','Lembar','[value-5]')</v>
+        <f>"INSERT INTO `bantuan`  (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','MATERIAL','"&amp;C2&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan`  (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (1,'Karung Plastik','MATERIAL','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5484,8 +5184,8 @@
         <v>321</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="0">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','MATERIAL','"&amp;C3&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (2,'Triplek','MATERIAL','Lembar','[value-5]')</v>
+        <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','MATERIAL','"&amp;C3&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (2,'Triplek','MATERIAL','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5499,8 +5199,8 @@
         <v>321</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (3,'Seng','MATERIAL','Lembar','[value-5]')</v>
+        <f t="shared" ref="D3:D17" si="0">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A4&amp;",'"&amp;B4&amp;"','MATERIAL','"&amp;C4&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (3,'Seng','MATERIAL','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5515,7 +5215,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (4,'Paku Payung','MATERIAL','Ons','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (4,'Paku Payung','MATERIAL','Ons','YYYYMMDD');</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5530,7 +5230,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (5,'Paku Usuk','MATERIAL','Ons','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (5,'Paku Usuk','MATERIAL','Ons','YYYYMMDD');</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5545,7 +5245,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (6,'Paku Reng','MATERIAL','Ons','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (6,'Paku Reng','MATERIAL','Ons','YYYYMMDD');</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5560,7 +5260,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (7,'Tanah Urug','MATERIAL','m³','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (7,'Tanah Urug','MATERIAL','m³','YYYYMMDD');</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5575,7 +5275,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (8,'Kawat Bronjong','MATERIAL','Biji','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (8,'Kawat Bronjong','MATERIAL','Biji','YYYYMMDD');</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5590,7 +5290,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (9,'Batu Belah','MATERIAL','m³','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (9,'Batu Belah','MATERIAL','m³','YYYYMMDD');</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5605,7 +5305,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (10,'Seng Bergelombang','MATERIAL','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (10,'Seng Bergelombang','MATERIAL','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5620,7 +5320,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (11,'Plastik Mika Penutup Longsor','MATERIAL','Roll','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (11,'Plastik Mika Penutup Longsor','MATERIAL','Roll','YYYYMMDD');</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5635,7 +5335,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (12,'Genteng','MATERIAL','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (12,'Genteng','MATERIAL','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5650,7 +5350,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (13,'Kerpus','MATERIAL','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (13,'Kerpus','MATERIAL','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5665,7 +5365,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (14,'Semen','MATERIAL','Sak','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (14,'Semen','MATERIAL','Sak','YYYYMMDD');</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5680,7 +5380,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (15,'Batu Bata','MATERIAL','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (15,'Batu Bata','MATERIAL','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5694,8 +5394,8 @@
         <v>323</v>
       </c>
       <c r="D17" t="str">
-        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A17&amp;",'"&amp;B17&amp;"','MATERIAL','"&amp;C17&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (16,'Pasir','MATERIAL','m³','[value-5]')</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (16,'Pasir','MATERIAL','m³','YYYYMMDD');</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5714,8 +5414,8 @@
         <v>321</v>
       </c>
       <c r="D20" t="str">
-        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A20&amp;",'"&amp;B20&amp;"','SANDANG','"&amp;C20&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (17,'Selimut','SANDANG','Lembar','[value-5]')</v>
+        <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A20&amp;",'"&amp;B20&amp;"','SANDANG','"&amp;C20&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (17,'Selimut','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5729,8 +5429,8 @@
         <v>321</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ref="D21:D84" si="1">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A21&amp;",'"&amp;B21&amp;"','SANDANG','"&amp;C21&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (18,'Selimut Lurik','SANDANG','Lembar','[value-5]')</v>
+        <f t="shared" ref="D21:D84" si="1">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A21&amp;",'"&amp;B21&amp;"','SANDANG','"&amp;C21&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (18,'Selimut Lurik','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5745,7 +5445,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (19,'Jarik','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (19,'Jarik','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5760,7 +5460,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (20,'Sarung','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (20,'Sarung','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5775,7 +5475,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (21,'Kelambu','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (21,'Kelambu','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5790,7 +5490,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (22,'Baju anak','SANDANG','Pcs','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (22,'Baju anak','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5805,7 +5505,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (23,'Kaos dalam laki - laki ','SANDANG','Pcs','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (23,'Kaos dalam laki - laki ','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5820,7 +5520,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (24,'Celana dalam wanita','SANDANG','Pcs','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (24,'Celana dalam wanita','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5835,7 +5535,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (25,'Daster','SANDANG','Pcs','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (25,'Daster','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5850,7 +5550,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (26,'Kaos untuk relawan','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (26,'Kaos untuk relawan','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5865,7 +5565,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (27,'Seragam Relawan','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (27,'Seragam Relawan','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5880,7 +5580,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (28,'Paket Sandang','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (28,'Paket Sandang','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5895,7 +5595,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (29,'Kid Ware','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (29,'Kid Ware','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5910,7 +5610,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (30,'Kids Ware','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (30,'Kids Ware','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5925,7 +5625,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (31,'Family Kit','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (31,'Family Kit','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5940,7 +5640,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (32,'Peralatan Dapur / Food ware','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (32,'Peralatan Dapur / Food ware','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5955,7 +5655,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (33,'Peralatan Kesehatan Rumah Tangga','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (33,'Peralatan Kesehatan Rumah Tangga','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5970,7 +5670,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (34,'Peralatan Kesehatan/Kebersihan','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (34,'Peralatan Kesehatan/Kebersihan','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5985,7 +5685,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (35,'Perlengkapan Sekolah','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (35,'Perlengkapan Sekolah','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6000,7 +5700,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (36,'Perlengkapan Makan','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (36,'Perlengkapan Makan','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6015,7 +5715,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (37,'Kantong Mayat','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (37,'Kantong Mayat','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6030,7 +5730,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (38,'Kantong Jenazah','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (38,'Kantong Jenazah','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6045,7 +5745,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (39,'Paket Rekreasional','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (39,'Paket Rekreasional','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6060,7 +5760,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (40,'Medical kit','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (40,'Medical kit','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6075,7 +5775,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (41,'Matras ','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (41,'Matras ','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6090,7 +5790,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (42,'Tikar ','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (42,'Tikar ','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6105,7 +5805,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (43,'Tenda Gulung','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (43,'Tenda Gulung','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6120,7 +5820,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (44,'Paket Seragam PA','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (44,'Paket Seragam PA','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6135,7 +5835,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (45,'Paket Seragam PI','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (45,'Paket Seragam PI','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6150,7 +5850,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (46,'Tas Sekolah','SANDANG','Pcs','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (46,'Tas Sekolah','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6165,7 +5865,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (47,'Pakaian Seragam SD PA','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (47,'Pakaian Seragam SD PA','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6180,7 +5880,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (48,'Pakaian Seragam SD PI','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (48,'Pakaian Seragam SD PI','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6195,7 +5895,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (49,'Handuk','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (49,'Handuk','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6210,7 +5910,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (50,'Wajan ','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (50,'Wajan ','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6225,7 +5925,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (51,'Panci ','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (51,'Panci ','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6240,7 +5940,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (52,'Brosur Kebencanaan','SANDANG','Lembar','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (52,'Brosur Kebencanaan','SANDANG','Lembar','YYYYMMDD');</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6255,7 +5955,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (53,'Sepatu Boot','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (53,'Sepatu Boot','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6270,7 +5970,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (54,'Jas Hujan','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (54,'Jas Hujan','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6285,7 +5985,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (55,'Webbing','SANDANG','Roll','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (55,'Webbing','SANDANG','Roll','YYYYMMDD');</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6300,7 +6000,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (56,'Buku Cerita','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (56,'Buku Cerita','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6315,7 +6015,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (57,'Buku Saku Kebencanaan','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (57,'Buku Saku Kebencanaan','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6330,7 +6030,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (58,'Tas Tahan Air','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (58,'Tas Tahan Air','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6345,7 +6045,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (59,'Tas Penyimpan Dokumen Penting','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (59,'Tas Penyimpan Dokumen Penting','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6360,7 +6060,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (60,'Pembalut Charm','SANDANG','Pack','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (60,'Pembalut Charm','SANDANG','Pack','YYYYMMDD');</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6375,7 +6075,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (61,'Pembalut Laurier','SANDANG','Pack','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (61,'Pembalut Laurier','SANDANG','Pack','YYYYMMDD');</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6390,7 +6090,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (62,'Pembalut','SANDANG','Pack','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (62,'Pembalut','SANDANG','Pack','YYYYMMDD');</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6405,7 +6105,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (63,'Pempers','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (63,'Pempers','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6420,7 +6120,7 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (64,'Pampers M','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (64,'Pampers M','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6435,7 +6135,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (65,'Pempers L','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (65,'Pempers L','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6450,7 +6150,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (66,'Pampers S','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (66,'Pampers S','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6465,7 +6165,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (67,'Pampers','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (67,'Pampers','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6480,7 +6180,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (68,'Linggis','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (68,'Linggis','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6495,7 +6195,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (69,'Cangkul','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (69,'Cangkul','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6510,7 +6210,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (70,'Skop','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (70,'Skop','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6525,7 +6225,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (71,'Garpu','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (71,'Garpu','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6540,7 +6240,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (72,'Parang','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (72,'Parang','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6555,7 +6255,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (73,'Helmet Font Brim Ventedorange','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (73,'Helmet Font Brim Ventedorange','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6570,7 +6270,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (74,'Helmet Front Brim Orange','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (74,'Helmet Front Brim Orange','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6585,7 +6285,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (75,'Sarung Tangan Latex Yellow','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (75,'Sarung Tangan Latex Yellow','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6600,7 +6300,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (76,'Sarung Tangan Glove Blue Leather','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (76,'Sarung Tangan Glove Blue Leather','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6615,7 +6315,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (77,'Sarung Tangan Kain','SANDANG','dos','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (77,'Sarung Tangan Kain','SANDANG','dos','YYYYMMDD');</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6630,7 +6330,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (78,'Masker','SANDANG','dos','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (78,'Masker','SANDANG','dos','YYYYMMDD');</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6645,7 +6345,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (79,'Troly','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (79,'Troly','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6660,7 +6360,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (80,'Hygiene Kit','SANDANG','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (80,'Hygiene Kit','SANDANG','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6675,7 +6375,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (81,'Sarung ','SANDANG','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (81,'Sarung ','SANDANG','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6689,8 +6389,8 @@
         <v>328</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" ref="D85:D88" si="2">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A85&amp;",'"&amp;B85&amp;"','SANDANG','"&amp;C85&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (82,'Tikar','SANDANG','Pcs','[value-5]')</v>
+        <f t="shared" ref="D85" si="2">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A85&amp;",'"&amp;B85&amp;"','SANDANG','"&amp;C85&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (82,'Tikar','SANDANG','Pcs','YYYYMMDD');</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6709,8 +6409,8 @@
         <v>332</v>
       </c>
       <c r="D88" t="str">
-        <f>"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A88&amp;",'"&amp;B88&amp;"','MAKANAN DAN MINUMAN','"&amp;C88&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (83,'Air Mineral','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+        <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A88&amp;",'"&amp;B88&amp;"','MAKANAN DAN MINUMAN','"&amp;C88&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (83,'Air Mineral','MAKANAN DAN MINUMAN','Dus','YYYYMMDD');</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6724,8 +6424,8 @@
         <v>332</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ref="D89:D111" si="3">"INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A89&amp;",'"&amp;B89&amp;"','MAKANAN DAN MINUMAN','"&amp;C89&amp;"','[value-5]')"</f>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (84,'Air Mineral Botol','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+        <f t="shared" ref="D89:D111" si="3">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A89&amp;",'"&amp;B89&amp;"','MAKANAN DAN MINUMAN','"&amp;C89&amp;"','YYYYMMDD');"</f>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (84,'Air Mineral Botol','MAKANAN DAN MINUMAN','Dus','YYYYMMDD');</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6740,7 +6440,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (85,'Air Mineral Gelas','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (85,'Air Mineral Gelas','MAKANAN DAN MINUMAN','Dus','YYYYMMDD');</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6755,7 +6455,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (86,'Beras','MAKANAN DAN MINUMAN','Kg','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (86,'Beras','MAKANAN DAN MINUMAN','Kg','YYYYMMDD');</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6770,7 +6470,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (87,'Gula Pasir','MAKANAN DAN MINUMAN','Kg','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (87,'Gula Pasir','MAKANAN DAN MINUMAN','Kg','YYYYMMDD');</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6785,7 +6485,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (88,'Lauk Pauk','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (88,'Lauk Pauk','MAKANAN DAN MINUMAN','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6800,7 +6500,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (89,'Minyak Goreng','MAKANAN DAN MINUMAN','Liter','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (89,'Minyak Goreng','MAKANAN DAN MINUMAN','Liter','YYYYMMDD');</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6815,7 +6515,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (90,'Mie Instan','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (90,'Mie Instan','MAKANAN DAN MINUMAN','Dus','YYYYMMDD');</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6830,7 +6530,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (91,'Bubur Sun @24','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (91,'Bubur Sun @24','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6845,7 +6545,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (92,'Bubur Sun @24 (Makanan Balita)','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (92,'Bubur Sun @24 (Makanan Balita)','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6860,7 +6560,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (93,'Makanan Balita','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (93,'Makanan Balita','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6875,7 +6575,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (94,'Susu Anak/Balita','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (94,'Susu Anak/Balita','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6890,7 +6590,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (95,'Susu Kaleng','MAKANAN DAN MINUMAN','Kaleng','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (95,'Susu Kaleng','MAKANAN DAN MINUMAN','Kaleng','YYYYMMDD');</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6905,7 +6605,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (96,'Kecap','MAKANAN DAN MINUMAN','Botol','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (96,'Kecap','MAKANAN DAN MINUMAN','Botol','YYYYMMDD');</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6920,7 +6620,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (97,'Tambahan Gizi','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (97,'Tambahan Gizi','MAKANAN DAN MINUMAN','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6935,7 +6635,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (98,'Saos','MAKANAN DAN MINUMAN','Botol','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (98,'Saos','MAKANAN DAN MINUMAN','Botol','YYYYMMDD');</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6950,7 +6650,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (99,'Teh Serbuk','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (99,'Teh Serbuk','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6965,7 +6665,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (100,'Teh Celup','MAKANAN DAN MINUMAN','Dus','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (100,'Teh Celup','MAKANAN DAN MINUMAN','Dus','YYYYMMDD');</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6980,7 +6680,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (101,'Kopi Susu','MAKANAN DAN MINUMAN','Sachet','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (101,'Kopi Susu','MAKANAN DAN MINUMAN','Sachet','YYYYMMDD');</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6995,7 +6695,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (102,'Kopi Instan','MAKANAN DAN MINUMAN','Sachet','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (102,'Kopi Instan','MAKANAN DAN MINUMAN','Sachet','YYYYMMDD');</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7010,7 +6710,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (103,'Sarden','MAKANAN DAN MINUMAN','Kaleng','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (103,'Sarden','MAKANAN DAN MINUMAN','Kaleng','YYYYMMDD');</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7025,7 +6725,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (104,'Siap Saji','MAKANAN DAN MINUMAN','Paket','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (104,'Siap Saji','MAKANAN DAN MINUMAN','Paket','YYYYMMDD');</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7040,7 +6740,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (105,'Yogurt','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (105,'Yogurt','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7055,30 +6755,30 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO `bantuan`(`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (106,'Daging Kaleng','MAKANAN DAN MINUMAN','Buah','[value-5]')</v>
+        <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (106,'Daging Kaleng','MAKANAN DAN MINUMAN','Buah','YYYYMMDD');</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B83">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B85">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B111">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7088,7 +6788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -7400,34 +7100,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:E80"/>
+  <dimension ref="B2:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:5">
+    <row r="2" spans="2:5">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="2:5">
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="2:5">
       <c r="D10" s="14"/>
       <c r="E10" s="10"/>
     </row>
     <row r="80" ht="14.25" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7438,7 +7148,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7447,13 +7157,12 @@
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
-  <autoFilter ref="A1:C1"/>
   <conditionalFormatting sqref="C40:C49">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C49">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BANTUAN!$B$87:$B$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BANTUAN!$B$1:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateCount="1"/>
+  <calcPr calcId="162913" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="381">
   <si>
     <t>user</t>
   </si>
@@ -173,303 +173,18 @@
     <t>NO</t>
   </si>
   <si>
-    <t>NAMA DESA</t>
-  </si>
-  <si>
     <t>KODE POS</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>PATI LOR</t>
-  </si>
-  <si>
-    <t> PANJUNAN</t>
-  </si>
-  <si>
-    <t> GERITAN</t>
-  </si>
-  <si>
-    <t> MULYOHARJO</t>
-  </si>
-  <si>
-    <t> NGEPUNGROJO</t>
-  </si>
-  <si>
-    <t> PARENGGAN</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>BANGSALREJO</t>
-  </si>
-  <si>
-    <t>BUMIAYU</t>
-  </si>
-  <si>
-    <t>JATIMULYO</t>
-  </si>
-  <si>
-    <t>JETAK</t>
-  </si>
-  <si>
-    <t>JONTRO</t>
-  </si>
-  <si>
-    <t>KEPOH</t>
-  </si>
-  <si>
-    <t>MARGOREJO</t>
-  </si>
-  <si>
-    <t>NGURENREJO</t>
-  </si>
-  <si>
-    <t>NGURENSITI</t>
-  </si>
-  <si>
-    <t>PAGERHARJO</t>
-  </si>
-  <si>
-    <t>PANGGUNGROYOM</t>
-  </si>
-  <si>
-    <t>SIDOHARJO</t>
-  </si>
-  <si>
-    <t>SUKOHARJO</t>
-  </si>
-  <si>
-    <t>SUWADUK</t>
-  </si>
-  <si>
-    <t>TAWANGHARJO</t>
-  </si>
-  <si>
-    <t>TLOGOHARUM</t>
-  </si>
-  <si>
-    <t>TLUWUK</t>
-  </si>
-  <si>
-    <t>WEDARIJAKSA</t>
-  </si>
-  <si>
-    <t>BADEGAN</t>
-  </si>
-  <si>
-    <t>BANYUURIP</t>
-  </si>
-  <si>
-    <t>BUMIREJO</t>
-  </si>
-  <si>
-    <t>DADIREJO</t>
-  </si>
-  <si>
-    <t>JAMBEAN KIDUL</t>
-  </si>
-  <si>
-    <t>JIMBARAN</t>
-  </si>
-  <si>
-    <t>LANGENHARJO</t>
-  </si>
-  <si>
-    <t>LANGSE</t>
-  </si>
-  <si>
-    <t>METARAMAN</t>
-  </si>
-  <si>
-    <t>MUKTIHARJO</t>
-  </si>
-  <si>
-    <t>NGAWEN</t>
-  </si>
-  <si>
-    <t>PEGANDAN</t>
-  </si>
-  <si>
-    <t>PENAMBUHAN</t>
-  </si>
-  <si>
-    <t>SOKOKULON</t>
-  </si>
-  <si>
-    <t>SUKOBUBUK</t>
-  </si>
-  <si>
-    <t>WANGUNREJO</t>
-  </si>
-  <si>
-    <t>ASEMPAPAN</t>
-  </si>
-  <si>
-    <t>GUYANGAN</t>
-  </si>
-  <si>
-    <t>KADILANGU</t>
-  </si>
-  <si>
-    <t>KAJAR</t>
-  </si>
-  <si>
-    <t>KARANGLEGI</t>
-  </si>
-  <si>
-    <t>KARANGWAGE</t>
-  </si>
-  <si>
-    <t>KERTOMULYO</t>
-  </si>
-  <si>
-    <t>KETANEN</t>
-  </si>
-  <si>
-    <t>KRANDAN</t>
-  </si>
-  <si>
-    <t>MOJOAGUNG</t>
-  </si>
-  <si>
-    <t>PASUCEN</t>
-  </si>
-  <si>
-    <t>REJOAGUNG</t>
-  </si>
-  <si>
-    <t>SAMBILAWANG</t>
-  </si>
-  <si>
-    <t>TEGALHARJO</t>
-  </si>
-  <si>
-    <t>TLUTUP</t>
-  </si>
-  <si>
-    <t>TRANGKIL</t>
-  </si>
-  <si>
-    <t>AGUNGMULYO</t>
-  </si>
-  <si>
-    <t>BAKALAN</t>
-  </si>
-  <si>
-    <t>DUMPIL</t>
-  </si>
-  <si>
-    <t>NGAGEL</t>
-  </si>
-  <si>
-    <t>KENANTI</t>
-  </si>
-  <si>
-    <t>ALASDOWO</t>
-  </si>
-  <si>
-    <t>GROGOLAN</t>
-  </si>
-  <si>
-    <t>DUKUHSETI</t>
-  </si>
-  <si>
-    <t>BANYUTOWO</t>
-  </si>
-  <si>
-    <t>KEMBANG</t>
-  </si>
-  <si>
-    <t>TEGALOMBO</t>
-  </si>
-  <si>
-    <t>PUNCEL</t>
-  </si>
-  <si>
-    <t>WEDUSAN</t>
-  </si>
-  <si>
     <t>bukti_peninjauan</t>
   </si>
   <si>
-    <t>BAJOMULYO</t>
-  </si>
-  <si>
-    <t>BAKARAN KULON</t>
-  </si>
-  <si>
-    <t>BAKARAN WETAN</t>
-  </si>
-  <si>
-    <t>BENDAR</t>
-  </si>
-  <si>
-    <t>BRINGIN</t>
-  </si>
-  <si>
-    <t>DOROPAYUNG</t>
-  </si>
-  <si>
-    <t>DUKUTALIT</t>
-  </si>
-  <si>
-    <t>GADINGREJO</t>
-  </si>
-  <si>
-    <t>GENENGMULYO</t>
-  </si>
-  <si>
-    <t>GROWONG KIDUL</t>
-  </si>
-  <si>
-    <t>GROWONG LOR</t>
-  </si>
-  <si>
-    <t>JEPURO</t>
-  </si>
-  <si>
-    <t>KARANG</t>
-  </si>
-  <si>
-    <t>KARANGREJO</t>
-  </si>
-  <si>
-    <t>KAUMAN</t>
-  </si>
-  <si>
-    <t>KEBONSAWAHAN</t>
-  </si>
-  <si>
-    <t>KEDUNGPANCING</t>
-  </si>
-  <si>
-    <t>KETIP</t>
-  </si>
-  <si>
-    <t>KUDUKERAS</t>
-  </si>
-  <si>
-    <t>MARGOMULYO</t>
-  </si>
-  <si>
-    <t>MINTOMULYO</t>
-  </si>
-  <si>
-    <t>PAJEKSAN</t>
-  </si>
-  <si>
-    <t>PEKUWON</t>
-  </si>
-  <si>
-    <t>SEJOMULYO</t>
-  </si>
-  <si>
-    <t>TLUWAH</t>
-  </si>
-  <si>
     <t>ajeng</t>
   </si>
   <si>
@@ -581,72 +296,6 @@
     <t>Siti Ifa Setiana</t>
   </si>
   <si>
-    <t>WIDOROKANDANG</t>
-  </si>
-  <si>
-    <t>TAMBAHSARI</t>
-  </si>
-  <si>
-    <t>TAMBAHARJO</t>
-  </si>
-  <si>
-    <t>SINOMAN</t>
-  </si>
-  <si>
-    <t>PURWOREJO</t>
-  </si>
-  <si>
-    <t>PAYANG</t>
-  </si>
-  <si>
-    <t>SUGIHARJO</t>
-  </si>
-  <si>
-    <t>SIDOKERTO</t>
-  </si>
-  <si>
-    <t>NGARUS</t>
-  </si>
-  <si>
-    <t>WINONG</t>
-  </si>
-  <si>
-    <t>PLANGITAN</t>
-  </si>
-  <si>
-    <t>PURI</t>
-  </si>
-  <si>
-    <t>BLARU</t>
-  </si>
-  <si>
-    <t>PATI KIDUL</t>
-  </si>
-  <si>
-    <t>PATI WETAN</t>
-  </si>
-  <si>
-    <t>GAJAHMATI</t>
-  </si>
-  <si>
-    <t>SEMAMPIR</t>
-  </si>
-  <si>
-    <t>KALIDORO</t>
-  </si>
-  <si>
-    <t>MUSTOKOHARJO</t>
-  </si>
-  <si>
-    <t>KUTOHARJO</t>
-  </si>
-  <si>
-    <t>SARIREJO</t>
-  </si>
-  <si>
-    <t>DENGKEK</t>
-  </si>
-  <si>
     <t>Kebanjiran karena tanggul jebol</t>
   </si>
   <si>
@@ -1107,12 +756,429 @@
   </si>
   <si>
     <t>Orang Hilang di perairan ( Hilang Kontak )</t>
+  </si>
+  <si>
+    <t>Bacin</t>
+  </si>
+  <si>
+    <t>Bae</t>
+  </si>
+  <si>
+    <t>Dersalam</t>
+  </si>
+  <si>
+    <t>Gondangmanis</t>
+  </si>
+  <si>
+    <t>Karangbener</t>
+  </si>
+  <si>
+    <t>Ngembalrejo</t>
+  </si>
+  <si>
+    <t>Panjang</t>
+  </si>
+  <si>
+    <t>Pedawang</t>
+  </si>
+  <si>
+    <t>Peganjaran</t>
+  </si>
+  <si>
+    <t>Purworejo</t>
+  </si>
+  <si>
+    <t>Cendono</t>
+  </si>
+  <si>
+    <t>Colo</t>
+  </si>
+  <si>
+    <t>Cranggang</t>
+  </si>
+  <si>
+    <t>Dukuhwaringin</t>
+  </si>
+  <si>
+    <t>Glagah Kulon</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kajar</t>
+  </si>
+  <si>
+    <t>Kandangmas</t>
+  </si>
+  <si>
+    <t>Kuwukan</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Margorejo</t>
+  </si>
+  <si>
+    <t>Piji</t>
+  </si>
+  <si>
+    <t>Puyoh</t>
+  </si>
+  <si>
+    <t>Rejosari</t>
+  </si>
+  <si>
+    <t>Samirejo</t>
+  </si>
+  <si>
+    <t>Soco</t>
+  </si>
+  <si>
+    <t>Tergo</t>
+  </si>
+  <si>
+    <t>Ternadi</t>
+  </si>
+  <si>
+    <t>NAMA DESA DESA BAE</t>
+  </si>
+  <si>
+    <t>NAMA DESA DAWE</t>
+  </si>
+  <si>
+    <t>NAMA DESA GEBOG</t>
+  </si>
+  <si>
+    <t>Besito</t>
+  </si>
+  <si>
+    <t>Getasrabi</t>
+  </si>
+  <si>
+    <t>Gondosari</t>
+  </si>
+  <si>
+    <t>Gribig</t>
+  </si>
+  <si>
+    <t>Jurang</t>
+  </si>
+  <si>
+    <t>Karangmalang</t>
+  </si>
+  <si>
+    <t>Kedungsari</t>
+  </si>
+  <si>
+    <t>Klumpit</t>
+  </si>
+  <si>
+    <t>Menawan</t>
+  </si>
+  <si>
+    <t>Padurenan</t>
+  </si>
+  <si>
+    <t>Rahtawu</t>
+  </si>
+  <si>
+    <t>NAMA DESA JATI</t>
+  </si>
+  <si>
+    <t>Getaspejaten</t>
+  </si>
+  <si>
+    <t>Jati Kulon</t>
+  </si>
+  <si>
+    <t>Jati Wetan</t>
+  </si>
+  <si>
+    <t>Jepangpakis</t>
+  </si>
+  <si>
+    <t>Jetiskapuan</t>
+  </si>
+  <si>
+    <t>Loram Kulon</t>
+  </si>
+  <si>
+    <t>Loram Wetan</t>
+  </si>
+  <si>
+    <t>Megawon</t>
+  </si>
+  <si>
+    <t>Ngembal Kulon</t>
+  </si>
+  <si>
+    <t>Pasuruhan Kidul</t>
+  </si>
+  <si>
+    <t>Pasuruhan Lor</t>
+  </si>
+  <si>
+    <t>Ploso</t>
+  </si>
+  <si>
+    <t>Tanjungkarang</t>
+  </si>
+  <si>
+    <t>Tumpangkrasak</t>
+  </si>
+  <si>
+    <t>NAMA DESA JEKULO</t>
+  </si>
+  <si>
+    <t>Bulung Kulon</t>
+  </si>
+  <si>
+    <t>Bulungcangkring</t>
+  </si>
+  <si>
+    <t>Gondoharum</t>
+  </si>
+  <si>
+    <t>Hadipolo</t>
+  </si>
+  <si>
+    <t>Honggosoco</t>
+  </si>
+  <si>
+    <t>Jekulo</t>
+  </si>
+  <si>
+    <t>Klaling</t>
+  </si>
+  <si>
+    <t>Pladen</t>
+  </si>
+  <si>
+    <t>Sadang</t>
+  </si>
+  <si>
+    <t>Sidomulyo</t>
+  </si>
+  <si>
+    <t>Tanjungrejo</t>
+  </si>
+  <si>
+    <t>Terban</t>
+  </si>
+  <si>
+    <t>Bakalankrapyak</t>
+  </si>
+  <si>
+    <t>Banget</t>
+  </si>
+  <si>
+    <t>Blimbing Kidul</t>
+  </si>
+  <si>
+    <t>Gamong</t>
+  </si>
+  <si>
+    <t>Garung Kidul</t>
+  </si>
+  <si>
+    <t>Garung Lor</t>
+  </si>
+  <si>
+    <t>Kaliwungu</t>
+  </si>
+  <si>
+    <t>Karangampel</t>
+  </si>
+  <si>
+    <t>Kedungdowo</t>
+  </si>
+  <si>
+    <t>Mijen</t>
+  </si>
+  <si>
+    <t>Papringan</t>
+  </si>
+  <si>
+    <t>Prambatan Kidul</t>
+  </si>
+  <si>
+    <t>Prambatan Lor</t>
+  </si>
+  <si>
+    <t>Setrokalangan</t>
+  </si>
+  <si>
+    <t>Sidorekso</t>
+  </si>
+  <si>
+    <t>NAMA DESA KALIWUNGU</t>
+  </si>
+  <si>
+    <t>Barongan</t>
+  </si>
+  <si>
+    <t>Burikan</t>
+  </si>
+  <si>
+    <t>Damaran</t>
+  </si>
+  <si>
+    <t>Demaan</t>
+  </si>
+  <si>
+    <t>Demangan</t>
+  </si>
+  <si>
+    <t>Glantengan</t>
+  </si>
+  <si>
+    <t>Janggalan</t>
+  </si>
+  <si>
+    <t>Kaliputu</t>
+  </si>
+  <si>
+    <t>Kauman</t>
+  </si>
+  <si>
+    <t>Krandon</t>
+  </si>
+  <si>
+    <t>Langgardalem</t>
+  </si>
+  <si>
+    <t>Mlati Lor</t>
+  </si>
+  <si>
+    <t>Nganguk</t>
+  </si>
+  <si>
+    <t>Rendeng</t>
+  </si>
+  <si>
+    <t>Singocandi</t>
+  </si>
+  <si>
+    <t>Kramat</t>
+  </si>
+  <si>
+    <t>NAMA DESA KUDUS</t>
+  </si>
+  <si>
+    <t>Mlati Kidul</t>
+  </si>
+  <si>
+    <t>Mlati Norowito</t>
+  </si>
+  <si>
+    <t>Panjunan</t>
+  </si>
+  <si>
+    <t>Purwosari</t>
+  </si>
+  <si>
+    <t>Sunggingan</t>
+  </si>
+  <si>
+    <t>Wergu Kulon</t>
+  </si>
+  <si>
+    <t>Wergu Wetan</t>
+  </si>
+  <si>
+    <t>Golantepus</t>
+  </si>
+  <si>
+    <t>Gulang</t>
+  </si>
+  <si>
+    <t>Hadiwarno</t>
+  </si>
+  <si>
+    <t>Jepang</t>
+  </si>
+  <si>
+    <t>Jojo</t>
+  </si>
+  <si>
+    <t>Kesambi</t>
+  </si>
+  <si>
+    <t>Kirig</t>
+  </si>
+  <si>
+    <t>Mejobo</t>
+  </si>
+  <si>
+    <t>Payaman</t>
+  </si>
+  <si>
+    <t>Temulus</t>
+  </si>
+  <si>
+    <t>Tenggeles</t>
+  </si>
+  <si>
+    <t>NAMA DESA MEJOBO</t>
+  </si>
+  <si>
+    <t>Glagahwaru</t>
+  </si>
+  <si>
+    <t>Kalirejo</t>
+  </si>
+  <si>
+    <t>Karangrowo</t>
+  </si>
+  <si>
+    <t>Kutuk</t>
+  </si>
+  <si>
+    <t>Lambangan</t>
+  </si>
+  <si>
+    <t>Larikrejo</t>
+  </si>
+  <si>
+    <t>Medini</t>
+  </si>
+  <si>
+    <t>Ngemplak</t>
+  </si>
+  <si>
+    <t>Sambung</t>
+  </si>
+  <si>
+    <t>Terangmas</t>
+  </si>
+  <si>
+    <t>Undaan Kidul</t>
+  </si>
+  <si>
+    <t>Undaan Lor</t>
+  </si>
+  <si>
+    <t>Undaan Tengah</t>
+  </si>
+  <si>
+    <t>Wates</t>
+  </si>
+  <si>
+    <t>Wonosoco</t>
+  </si>
+  <si>
+    <t>Berugenjang</t>
+  </si>
+  <si>
+    <t>NAMA DESA UNDAAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1184,38 +1250,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1240,6 +1280,26 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,28 +1309,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1886,7 +1924,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="G10" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1914,25 +1952,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="str">
@@ -1941,26 +1979,26 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4">
         <v>893456745</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>148</v>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I16" si="0">"INSERT INTO `user`(`id_user`, `nama_user`, `alamat_user`, `no_telp_user`, `username`, `password`, `level`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"')"</f>
@@ -1968,26 +2006,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4">
         <v>893456745</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>150</v>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -1995,26 +2033,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
         <v>8934566547</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>152</v>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -2022,26 +2060,26 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
         <v>893456734</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>154</v>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -2049,26 +2087,26 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4">
         <v>8934567534</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>156</v>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -2076,26 +2114,26 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4">
         <v>8934567535</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>152</v>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -2103,26 +2141,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4">
         <v>8934567536</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>152</v>
+      <c r="E8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -2130,26 +2168,26 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4">
         <v>8934567537</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>152</v>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -2157,26 +2195,26 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4">
         <v>8934567538</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>152</v>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -2184,26 +2222,26 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4">
         <v>8934567539</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>152</v>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -2211,26 +2249,26 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4">
         <v>8934567540</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>152</v>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -2238,26 +2276,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4">
         <v>8934567541</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>152</v>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -2265,26 +2303,26 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4">
         <v>8934567542</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>152</v>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -2292,26 +2330,26 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4">
         <v>8934567543</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>152</v>
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -2319,26 +2357,26 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4">
         <v>8934567544</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>152</v>
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -2353,2467 +2391,2112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134:E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="4">
+      <c r="B1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="5">
-        <v>59111</v>
+      <c r="B2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="14">
+        <v>89765676561</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI LOR','59111');</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>UPPER(B2)</f>
-        <v>PATI LOR</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A3" s="4">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Bacin','89765676561');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="5">
-        <v>59111</v>
+      <c r="B3" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="14">
+        <v>89765676562</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E30" si="0">"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SIDOKERTO','59111');</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="1">UPPER(B3)</f>
-        <v>SIDOKERTO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A4" s="4">
+        <f t="shared" ref="E3:E11" si="0">"INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','"&amp;B3&amp;"','"&amp;C3&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Bae','89765676562');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="5">
-        <v>59112</v>
+      <c r="B4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="14">
+        <v>89765676563</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','NGARUS','59112');</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>NGARUS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Dersalam','89765676563');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="5">
-        <v>59112</v>
+      <c r="B5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="14">
+        <v>89765676564</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','WINONG','59112');</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>WINONG</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A6" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Gondangmanis','89765676564');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="5">
-        <v>59113</v>
+      <c r="B6" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="14">
+        <v>89765676565</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PLANGITAN','59113');</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>PLANGITAN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A7" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Karangbener','89765676565');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="5">
-        <v>59113</v>
+      <c r="B7" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="14">
+        <v>89765676566</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PURI','59113');</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>PURI</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A8" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Ngembalrejo','89765676566');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="5">
-        <v>59114</v>
+      <c r="B8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="14">
+        <v>89765676567</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','BLARU','59114');</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>BLARU</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Panjang','89765676567');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="5">
-        <v>59114</v>
+      <c r="B9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="14">
+        <v>89765676568</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI KIDUL','59114');</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>PATI KIDUL</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A10" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Pedawang','89765676568');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="5">
-        <v>59115</v>
+      <c r="B10" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="14">
+        <v>89765676569</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PATI WETAN','59115');</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>PATI WETAN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Peganjaran','89765676569');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="5">
-        <v>59116</v>
+      <c r="B11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="14">
+        <v>89765676570</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','GAJAHMATI','59116');</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>GAJAHMATI</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('BAE','Purworejo','89765676570');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','"&amp;B14&amp;"','"&amp;C14&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','NAMA DESA DAWE','KODE POS');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="14">
+        <v>87656765431</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E32" si="1">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','"&amp;B15&amp;"','"&amp;C15&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Cendono','87656765431');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="14">
+        <v>87656765432</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Colo','87656765432');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="14">
+        <v>87656765433</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Cranggang','87656765433');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="14">
+        <v>87656765434</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Dukuhwaringin','87656765434');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="14">
+        <v>87656765435</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Glagah Kulon','87656765435');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="14">
+        <v>87656765436</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Japan','87656765436');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="14">
+        <v>87656765437</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Kajar','87656765437');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="14">
+        <v>87656765438</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Kandangmas','87656765438');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="14">
+        <v>9</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="14">
+        <v>87656765439</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Kuwukan','87656765439');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="14">
+        <v>10</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="14">
+        <v>87656765440</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Lau','87656765440');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5">
-        <v>59116</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PANJUNAN','59116');</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v> PANJUNAN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="4">
+      <c r="B25" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="14">
+        <v>87656765441</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Margorejo','87656765441');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="5">
-        <v>59116</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SEMAMPIR','59116');</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>SEMAMPIR</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="4">
+      <c r="B26" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="14">
+        <v>87656765442</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Piji','87656765442');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="5">
-        <v>59117</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','KALIDORO','59117');</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>KALIDORO</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="4">
+      <c r="B27" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="14">
+        <v>87656765443</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Puyoh','87656765443');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="5">
-        <v>59117</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','MUSTOKOHARJO','59117');</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>MUSTOKOHARJO</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="4">
+      <c r="B28" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="14">
+        <v>87656765444</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Rejosari','87656765444');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="5">
-        <v>59117</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SIDOHARJO','59117');</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>SIDOHARJO</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A17" s="4">
+      <c r="B29" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="14">
+        <v>87656765445</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Samirejo','87656765445');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="5">
-        <v>59118</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','KUTOHARJO','59118');</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>KUTOHARJO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A18" s="4">
+      <c r="B30" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="14">
+        <v>87656765446</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Soco','87656765446');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="5">
-        <v>59118</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SARIREJO','59118');</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="1"/>
-        <v>SARIREJO</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A19" s="4">
+      <c r="B31" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="14">
+        <v>87656765447</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Tergo','87656765447');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','DENGKEK','59119');</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="1"/>
-        <v>DENGKEK</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' GERITAN','59119');</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="1"/>
-        <v> GERITAN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' MULYOHARJO','59119');</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="1"/>
-        <v> MULYOHARJO</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' NGEPUNGROJO','59119');</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="1"/>
-        <v> NGEPUNGROJO</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA',' PARENGGAN','59119');</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="1"/>
-        <v> PARENGGAN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PAYANG','59119');</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="1"/>
-        <v>PAYANG</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','PURWOREJO','59119');</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="1"/>
-        <v>PURWOREJO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SINOMAN','59119');</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="1"/>
-        <v>SINOMAN</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','SUGIHARJO','59119');</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="1"/>
-        <v>SUGIHARJO</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','TAMBAHARJO','59119');</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>TAMBAHARJO</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','TAMBAHSARI','59119');</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v>TAMBAHSARI</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="5">
-        <v>59119</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp ) VALUES ('PATI KOTA','WIDOROKANDANG','59119');</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="1"/>
-        <v>WIDOROKANDANG</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="14">
+        <v>87656765448</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DAWE','Ternadi','87656765448');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','"&amp;B33&amp;"','"&amp;C33&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NAMA DESA','KODE POS');</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="1"/>
-        <v>NAMA DESA</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A34" s="4">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="14">
         <v>1</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E51" si="2">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','"&amp;B34&amp;"','"&amp;C34&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','BANGSALREJO','59152');</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="1"/>
-        <v>BANGSALREJO</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A35" s="4">
+      <c r="B36" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="14">
+        <v>59163</v>
+      </c>
+      <c r="E36" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','"&amp;B36&amp;"','"&amp;C36&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Besito','59163');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="14">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','BUMIAYU','59152');</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="1"/>
-        <v>BUMIAYU</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A36" s="4">
+      <c r="B37" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="14">
+        <v>59163</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ref="E37:E46" si="2">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','"&amp;B37&amp;"','"&amp;C37&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Getasrabi','59163');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="14">
         <v>3</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JATIMULYO','59152');</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="1"/>
-        <v>JATIMULYO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A37" s="4">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JETAK','59152');</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="1"/>
-        <v>JETAK</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A38" s="4">
-        <v>5</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="5">
-        <v>59152</v>
+      <c r="B38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="14">
+        <v>59163</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','JONTRO','59152');</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="1"/>
-        <v>JONTRO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A39" s="4">
-        <v>6</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Gondosari','59163');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="14">
+        <v>4</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="14">
+        <v>59163</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','KEPOH','59152');</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="1"/>
-        <v>KEPOH</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A40" s="4">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Gribig','59163');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14">
+        <v>5</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="14">
+        <v>59163</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','MARGOREJO','59152');</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="1"/>
-        <v>MARGOREJO</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A41" s="4">
-        <v>8</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Jurang','59163');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14">
+        <v>6</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="14">
+        <v>59163</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NGURENREJO','59152');</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="1"/>
-        <v>NGURENREJO</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A42" s="4">
-        <v>9</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Karangmalang','59163');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14">
+        <v>7</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="14">
+        <v>59163</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','NGURENSITI','59152');</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="1"/>
-        <v>NGURENSITI</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A43" s="4">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Kedungsari','59163');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14">
+        <v>8</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="14">
+        <v>59163</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','PAGERHARJO','59152');</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="1"/>
-        <v>PAGERHARJO</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="26.25" thickBot="1">
-      <c r="A44" s="4">
-        <v>11</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Klumpit','59163');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14">
+        <v>9</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="14">
+        <v>59163</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','PANGGUNGROYOM','59152');</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="1"/>
-        <v>PANGGUNGROYOM</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A45" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Menawan','59163');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14">
+        <v>10</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="14">
+        <v>59163</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SIDOHARJO','59152');</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="1"/>
-        <v>SIDOHARJO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A46" s="4">
-        <v>13</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Padurenan','59163');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14">
+        <v>11</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="14">
+        <v>59163</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SUKOHARJO','59152');</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="1"/>
-        <v>SUKOHARJO</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A47" s="4">
-        <v>14</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','SUWADUK','59152');</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="1"/>
-        <v>SUWADUK</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A48" s="4">
-        <v>15</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="5">
-        <v>59152</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TAWANGHARJO','59152');</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="1"/>
-        <v>TAWANGHARJO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A49" s="4">
-        <v>16</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="5">
-        <v>59152</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('GEBOG','Rahtawu','59163');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14">
+        <v>1</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="14">
+        <v>59153</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TLOGOHARUM','59152');</v>
-      </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="1"/>
-        <v>TLOGOHARUM</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A50" s="4">
-        <v>17</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="5">
-        <v>59152</v>
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','"&amp;B49&amp;"','"&amp;C49&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Getaspejaten','59153');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="14">
+        <v>2</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="14">
+        <v>59153</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','TLUWUK','59152');</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="1"/>
-        <v>TLUWUK</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A51" s="4">
-        <v>18</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="5">
-        <v>59152</v>
+        <f t="shared" ref="E50:E62" si="3">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','"&amp;B50&amp;"','"&amp;C50&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Jati Kulon','59153');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14">
+        <v>3</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="14">
+        <v>59153</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('WEDARIJAKSA','WEDARIJAKSA','59152');</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="1"/>
-        <v>WEDARIJAKSA</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A55" s="4">
-        <v>1</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="5">
-        <v>59163</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Jati Wetan','59153');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14">
+        <v>4</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="14">
+        <v>59153</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Jepangpakis','59153');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="14">
+        <v>5</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="14">
+        <v>59153</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Jetiskapuan','59153');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14">
+        <v>6</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="14">
+        <v>59153</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Loram Kulon','59153');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14">
+        <v>7</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="14">
+        <v>59153</v>
       </c>
       <c r="E55" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','"&amp;B55&amp;"','"&amp;C55&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BADEGAN','59163');</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="1"/>
-        <v>BADEGAN</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A56" s="4">
-        <v>2</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="5">
-        <v>59163</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Loram Wetan','59153');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14">
+        <v>8</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" s="14">
+        <v>59153</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ref="E56:E72" si="3">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','"&amp;B56&amp;"','"&amp;C56&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BANYUURIP','59163');</v>
-      </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="1"/>
-        <v>BANYUURIP</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A57" s="4">
-        <v>3</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="5">
-        <v>59163</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Megawon','59153');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14">
+        <v>9</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="14">
+        <v>59153</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','BUMIREJO','59163');</v>
-      </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="1"/>
-        <v>BUMIREJO</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A58" s="4">
-        <v>4</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="5">
-        <v>59163</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Ngembal Kulon','59153');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14">
+        <v>10</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="14">
+        <v>59153</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','DADIREJO','59163');</v>
-      </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="1"/>
-        <v>DADIREJO</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A59" s="4">
-        <v>5</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="5">
-        <v>59163</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Pasuruhan Kidul','59153');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14">
+        <v>11</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="14">
+        <v>59153</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','JAMBEAN KIDUL','59163');</v>
-      </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="1"/>
-        <v>JAMBEAN KIDUL</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A60" s="4">
-        <v>6</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="5">
-        <v>59163</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Pasuruhan Lor','59153');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14">
+        <v>12</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" s="14">
+        <v>59153</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','JIMBARAN','59163');</v>
-      </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="1"/>
-        <v>JIMBARAN</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A61" s="4">
-        <v>7</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="5">
-        <v>59163</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Ploso','59153');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14">
+        <v>13</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="14">
+        <v>59153</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','LANGENHARJO','59163');</v>
-      </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="1"/>
-        <v>LANGENHARJO</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A62" s="4">
-        <v>8</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="5">
-        <v>59163</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Tanjungkarang','59153');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14">
+        <v>14</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="14">
+        <v>59153</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','LANGSE','59163');</v>
-      </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="1"/>
-        <v>LANGSE</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A63" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JATI','Tumpangkrasak','59153');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="14">
+        <v>1</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E65" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','"&amp;B65&amp;"','"&amp;C65&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Bulung Kulon','59185');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14">
+        <v>2</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E76" si="4">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','"&amp;B66&amp;"','"&amp;C66&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Bulungcangkring','59185');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14">
+        <v>3</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Gondoharum','59185');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14">
+        <v>4</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Hadipolo','59185');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14">
+        <v>5</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Honggosoco','59185');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14">
+        <v>6</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Jekulo','59185');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14">
+        <v>7</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Klaling','59185');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14">
+        <v>8</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Pladen','59185');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="14">
         <v>9</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','MARGOREJO','59163');</v>
-      </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="1"/>
-        <v>MARGOREJO</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A64" s="4">
+      <c r="B73" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Sadang','59185');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="14">
         <v>10</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','METARAMAN','59163');</v>
-      </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="1"/>
-        <v>METARAMAN</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A65" s="4">
+      <c r="B74" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Sidomulyo','59185');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="14">
         <v>11</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','MUKTIHARJO','59163');</v>
-      </c>
-      <c r="Q65" t="str">
-        <f t="shared" si="1"/>
-        <v>MUKTIHARJO</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A66" s="4">
+      <c r="B75" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Tanjungrejo','59185');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="14">
         <v>12</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','NGAWEN','59163');</v>
-      </c>
-      <c r="Q66" t="str">
-        <f t="shared" si="1"/>
-        <v>NGAWEN</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A67" s="4">
-        <v>13</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','PEGANDAN','59163');</v>
-      </c>
-      <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q130" si="4">UPPER(B67)</f>
-        <v>PEGANDAN</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A68" s="4">
-        <v>14</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','PENAMBUHAN','59163');</v>
-      </c>
-      <c r="Q68" t="str">
+      <c r="B76" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="14">
+        <v>59185</v>
+      </c>
+      <c r="E76" t="str">
         <f t="shared" si="4"/>
-        <v>PENAMBUHAN</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A69" s="4">
-        <v>15</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SOKOKULON','59163');</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="4"/>
-        <v>SOKOKULON</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A70" s="4">
-        <v>16</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SUKOBUBUK','59163');</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="4"/>
-        <v>SUKOBUBUK</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A71" s="4">
-        <v>17</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','SUKOHARJO','59163');</v>
-      </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="4"/>
-        <v>SUKOHARJO</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A72" s="4">
-        <v>19</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="5">
-        <v>59163</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MARGOREJO','WANGUNREJO','59163');</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="4"/>
-        <v>WANGUNREJO</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q73" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q74" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A75" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JEKULO','Terban','59185');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.5">
+      <c r="A78" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="14">
         <v>1</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E75" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','"&amp;B75&amp;"','"&amp;C75&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','ASEMPAPAN','59153');</v>
-      </c>
-      <c r="Q75" t="str">
-        <f t="shared" si="4"/>
-        <v>ASEMPAPAN</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A76" s="4">
+      <c r="B79" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="14">
+        <v>59158</v>
+      </c>
+      <c r="E79" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KALIWUNGU','"&amp;B79&amp;"','"&amp;C79&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KALIWUNGU','Bakalankrapyak','59158');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="14">
         <v>2</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" ref="E76:E90" si="5">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','"&amp;B76&amp;"','"&amp;C76&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','GUYANGAN','59153');</v>
-      </c>
-      <c r="Q76" t="str">
-        <f t="shared" si="4"/>
-        <v>GUYANGAN</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A77" s="4">
+      <c r="B80" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" s="14">
+        <v>59158</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ref="E80:E92" si="5">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B80&amp;"','"&amp;C80&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Banget','59158');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="14">
         <v>3</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KADILANGU','59153');</v>
-      </c>
-      <c r="Q77" t="str">
-        <f t="shared" si="4"/>
-        <v>KADILANGU</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A78" s="4">
-        <v>4</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KAJAR','59153');</v>
-      </c>
-      <c r="Q78" t="str">
-        <f t="shared" si="4"/>
-        <v>KAJAR</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A79" s="4">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KARANGLEGI','59153');</v>
-      </c>
-      <c r="Q79" t="str">
-        <f t="shared" si="4"/>
-        <v>KARANGLEGI</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A80" s="4">
-        <v>6</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="5">
-        <v>59153</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KARANGWAGE','59153');</v>
-      </c>
-      <c r="Q80" t="str">
-        <f t="shared" si="4"/>
-        <v>KARANGWAGE</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A81" s="4">
-        <v>7</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="5">
-        <v>59153</v>
+      <c r="B81" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="14">
+        <v>59158</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KERTOMULYO','59153');</v>
-      </c>
-      <c r="Q81" t="str">
-        <f t="shared" si="4"/>
-        <v>KERTOMULYO</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A82" s="4">
-        <v>8</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Blimbing Kidul','59158');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="14">
+        <v>4</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="14">
+        <v>59158</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KETANEN','59153');</v>
-      </c>
-      <c r="Q82" t="str">
-        <f t="shared" si="4"/>
-        <v>KETANEN</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A83" s="4">
-        <v>9</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Gamong','59158');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="14">
+        <v>5</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="14">
+        <v>59158</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','KRANDAN','59153');</v>
-      </c>
-      <c r="Q83" t="str">
-        <f t="shared" si="4"/>
-        <v>KRANDAN</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A84" s="4">
-        <v>10</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Garung Kidul','59158');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="14">
+        <v>6</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="14">
+        <v>59158</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','MOJOAGUNG','59153');</v>
-      </c>
-      <c r="Q84" t="str">
-        <f t="shared" si="4"/>
-        <v>MOJOAGUNG</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A85" s="4">
-        <v>11</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Garung Lor','59158');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="14">
+        <v>7</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="14">
+        <v>59158</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','PASUCEN','59153');</v>
-      </c>
-      <c r="Q85" t="str">
-        <f t="shared" si="4"/>
-        <v>PASUCEN</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A86" s="4">
-        <v>12</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Kaliwungu','59158');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="14">
+        <v>8</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" s="14">
+        <v>59158</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','REJOAGUNG','59153');</v>
-      </c>
-      <c r="Q86" t="str">
-        <f t="shared" si="4"/>
-        <v>REJOAGUNG</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A87" s="4">
-        <v>13</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Karangampel','59158');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="14">
+        <v>9</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="14">
+        <v>59158</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','SAMBILAWANG','59153');</v>
-      </c>
-      <c r="Q87" t="str">
-        <f t="shared" si="4"/>
-        <v>SAMBILAWANG</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A88" s="4">
-        <v>14</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Kedungdowo','59158');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="14">
+        <v>10</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="14">
+        <v>59158</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TEGALHARJO','59153');</v>
-      </c>
-      <c r="Q88" t="str">
-        <f t="shared" si="4"/>
-        <v>TEGALHARJO</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A89" s="4">
-        <v>15</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Mijen','59158');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14">
+        <v>11</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="14">
+        <v>59158</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TLUTUP','59153');</v>
-      </c>
-      <c r="Q89" t="str">
-        <f t="shared" si="4"/>
-        <v>TLUTUP</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A90" s="4">
-        <v>16</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="5">
-        <v>59153</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Papringan','59158');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="14">
+        <v>12</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="14">
+        <v>59158</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('TRANGKIL','TRANGKIL','59153');</v>
-      </c>
-      <c r="Q90" t="str">
-        <f t="shared" si="4"/>
-        <v>TRANGKIL</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="B91" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B92" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q92" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A93" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Prambatan Kidul','59158');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="14">
+        <v>13</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="14">
+        <v>59158</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Prambatan Lor','59158');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14">
+        <v>14</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" s="14">
+        <v>59158</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Setrokalangan','59158');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14">
+        <v>15</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="14">
+        <v>59158</v>
+      </c>
+      <c r="E93" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B93&amp;"','"&amp;C93&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','Sidorekso','59158');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="14">
         <v>1</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E93" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','"&amp;B93&amp;"','"&amp;C93&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','AGUNGMULYO','59185');</v>
-      </c>
-      <c r="Q93" t="str">
-        <f t="shared" si="4"/>
-        <v>AGUNGMULYO</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A94" s="4">
+      <c r="B96" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="14">
+        <v>59159</v>
+      </c>
+      <c r="E96" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','"&amp;B96&amp;"','"&amp;C96&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Barongan','59159');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="14">
         <v>2</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" ref="E94:E120" si="6">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','"&amp;B94&amp;"','"&amp;C94&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAJOMULYO','59185');</v>
-      </c>
-      <c r="Q94" t="str">
-        <f t="shared" si="4"/>
-        <v>BAJOMULYO</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A95" s="4">
+      <c r="B97" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="14">
+        <v>59159</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" ref="E97:E118" si="6">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','"&amp;B97&amp;"','"&amp;C97&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Burikan','59159');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="14">
         <v>3</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAKARAN KULON','59185');</v>
-      </c>
-      <c r="Q95" t="str">
-        <f t="shared" si="4"/>
-        <v>BAKARAN KULON</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A96" s="4">
-        <v>4</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BAKARAN WETAN','59185');</v>
-      </c>
-      <c r="Q96" t="str">
-        <f t="shared" si="4"/>
-        <v>BAKARAN WETAN</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A97" s="4">
-        <v>5</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BENDAR','59185');</v>
-      </c>
-      <c r="Q97" t="str">
-        <f t="shared" si="4"/>
-        <v>BENDAR</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A98" s="4">
-        <v>6</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="5">
-        <v>59185</v>
+      <c r="B98" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" s="14">
+        <v>59159</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BRINGIN','59185');</v>
-      </c>
-      <c r="Q98" t="str">
-        <f t="shared" si="4"/>
-        <v>BRINGIN</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A99" s="4">
-        <v>7</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Damaran','59159');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="14">
+        <v>4</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="14">
+        <v>59159</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','BUMIREJO','59185');</v>
-      </c>
-      <c r="Q99" t="str">
-        <f t="shared" si="4"/>
-        <v>BUMIREJO</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A100" s="4">
-        <v>8</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Demaan','59159');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="14">
+        <v>5</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="14">
+        <v>59159</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','DOROPAYUNG','59185');</v>
-      </c>
-      <c r="Q100" t="str">
-        <f t="shared" si="4"/>
-        <v>DOROPAYUNG</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A101" s="4">
-        <v>9</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Demangan','59159');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="14">
+        <v>6</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="14">
+        <v>59159</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','DUKUTALIT','59185');</v>
-      </c>
-      <c r="Q101" t="str">
-        <f t="shared" si="4"/>
-        <v>DUKUTALIT</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A102" s="4">
-        <v>10</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C102" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Glantengan','59159');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="14">
+        <v>7</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" s="14">
+        <v>59159</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GADINGREJO','59185');</v>
-      </c>
-      <c r="Q102" t="str">
-        <f t="shared" si="4"/>
-        <v>GADINGREJO</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A103" s="4">
-        <v>11</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C103" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Janggalan','59159');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="14">
+        <v>8</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C103" s="14">
+        <v>59159</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GENENGMULYO','59185');</v>
-      </c>
-      <c r="Q103" t="str">
-        <f t="shared" si="4"/>
-        <v>GENENGMULYO</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A104" s="4">
-        <v>12</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Kaliputu','59159');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="14">
+        <v>9</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" s="14">
+        <v>59159</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GROWONG KIDUL','59185');</v>
-      </c>
-      <c r="Q104" t="str">
-        <f t="shared" si="4"/>
-        <v>GROWONG KIDUL</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A105" s="4">
-        <v>13</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Kauman','59159');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="14">
+        <v>10</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="14">
+        <v>59159</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','GROWONG LOR','59185');</v>
-      </c>
-      <c r="Q105" t="str">
-        <f t="shared" si="4"/>
-        <v>GROWONG LOR</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A106" s="4">
-        <v>14</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Krandon','59159');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="14">
+        <v>11</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C106" s="14">
+        <v>59159</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','JEPURO','59185');</v>
-      </c>
-      <c r="Q106" t="str">
-        <f t="shared" si="4"/>
-        <v>JEPURO</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A107" s="4">
-        <v>15</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C107" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Langgardalem','59159');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="14">
+        <v>12</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="14">
+        <v>59159</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KARANG','59185');</v>
-      </c>
-      <c r="Q107" t="str">
-        <f t="shared" si="4"/>
-        <v>KARANG</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A108" s="4">
-        <v>16</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Mlati Lor','59159');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="14">
+        <v>13</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="14">
+        <v>59159</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KARANGREJO','59185');</v>
-      </c>
-      <c r="Q108" t="str">
-        <f t="shared" si="4"/>
-        <v>KARANGREJO</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A109" s="4">
-        <v>17</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Nganguk','59159');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="14">
+        <v>14</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" s="14">
+        <v>59159</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KAUMAN','59185');</v>
-      </c>
-      <c r="Q109" t="str">
-        <f t="shared" si="4"/>
-        <v>KAUMAN</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A110" s="4">
-        <v>18</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Rendeng','59159');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="14">
+        <v>15</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="14">
+        <v>59159</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KEBONSAWAHAN','59185');</v>
-      </c>
-      <c r="Q110" t="str">
-        <f t="shared" si="4"/>
-        <v>KEBONSAWAHAN</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A111" s="4">
-        <v>19</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Singocandi','59159');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="14">
+        <v>16</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C111" s="14">
+        <v>59159</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KEDUNGPANCING','59185');</v>
-      </c>
-      <c r="Q111" t="str">
-        <f t="shared" si="4"/>
-        <v>KEDUNGPANCING</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A112" s="4">
-        <v>20</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Kramat','59159');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="14">
+        <v>17</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" s="14">
+        <v>59159</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KETIP','59185');</v>
-      </c>
-      <c r="Q112" t="str">
-        <f t="shared" si="4"/>
-        <v>KETIP</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A113" s="4">
-        <v>21</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Mlati Kidul','59159');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="14">
+        <v>18</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="14">
+        <v>59159</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','KUDUKERAS','59185');</v>
-      </c>
-      <c r="Q113" t="str">
-        <f t="shared" si="4"/>
-        <v>KUDUKERAS</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A114" s="4">
-        <v>22</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Mlati Norowito','59159');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="14">
+        <v>19</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114" s="14">
+        <v>59159</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','LANGENHARJO','59185');</v>
-      </c>
-      <c r="Q114" t="str">
-        <f t="shared" si="4"/>
-        <v>LANGENHARJO</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A115" s="4">
-        <v>23</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Panjunan','59159');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="14">
+        <v>20</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="14">
+        <v>59159</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','MARGOMULYO','59185');</v>
-      </c>
-      <c r="Q115" t="str">
-        <f t="shared" si="4"/>
-        <v>MARGOMULYO</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A116" s="4">
-        <v>24</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Purwosari','59159');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="14">
+        <v>21</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="14">
+        <v>59159</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','MINTOMULYO','59185');</v>
-      </c>
-      <c r="Q116" t="str">
-        <f t="shared" si="4"/>
-        <v>MINTOMULYO</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A117" s="4">
-        <v>25</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Sunggingan','59159');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="14">
+        <v>22</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117" s="14">
+        <v>59159</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','PAJEKSAN','59185');</v>
-      </c>
-      <c r="Q117" t="str">
-        <f t="shared" si="4"/>
-        <v>PAJEKSAN</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A118" s="4">
-        <v>26</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C118" s="5">
-        <v>59185</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Wergu Kulon','59159');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="14">
+        <v>23</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="14">
+        <v>59159</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','PEKUWON','59185');</v>
-      </c>
-      <c r="Q118" t="str">
-        <f t="shared" si="4"/>
-        <v>PEKUWON</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A119" s="4">
-        <v>27</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','SEJOMULYO','59185');</v>
-      </c>
-      <c r="Q119" t="str">
-        <f t="shared" si="4"/>
-        <v>SEJOMULYO</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A120" s="4">
-        <v>28</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="5">
-        <v>59185</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('JUWANA','TLUWAH','59185');</v>
-      </c>
-      <c r="Q120" t="str">
-        <f t="shared" si="4"/>
-        <v>TLUWAH</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="Q121" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B122" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q122" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A123" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('KOTA','Wergu Wetan','59159');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="14">
         <v>1</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" s="5">
-        <v>59158</v>
+      <c r="B121" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" s="14">
+        <v>8080</v>
+      </c>
+      <c r="E121" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','"&amp;B121&amp;"','"&amp;C121&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Golantepus','8080');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="14">
+        <v>2</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" s="14">
+        <v>8080</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" ref="E122:E131" si="7">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','"&amp;B122&amp;"','"&amp;C122&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Gulang','8080');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="14">
+        <v>3</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C123" s="14">
+        <v>8080</v>
       </c>
       <c r="E123" t="str">
-        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B123&amp;"','"&amp;C123&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','BAKALAN','59158');</v>
-      </c>
-      <c r="Q123" t="str">
-        <f t="shared" si="4"/>
-        <v>BAKALAN</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A124" s="4">
-        <v>2</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C124" s="5">
-        <v>59158</v>
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Hadiwarno','8080');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="14">
+        <v>4</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C124" s="14">
+        <v>8080</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" ref="E124:E134" si="7">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','"&amp;B124&amp;"','"&amp;C124&amp;"');"</f>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','DUMPIL','59158');</v>
-      </c>
-      <c r="Q124" t="str">
-        <f t="shared" si="4"/>
-        <v>DUMPIL</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A125" s="4">
-        <v>3</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="5">
-        <v>59158</v>
+        <f t="shared" si="7"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Jepang','8080');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="14">
+        <v>5</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" s="14">
+        <v>8080</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','NGAGEL','59158');</v>
-      </c>
-      <c r="Q125" t="str">
-        <f t="shared" si="4"/>
-        <v>NGAGEL</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A126" s="4">
-        <v>4</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C126" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Jojo','8080');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="14">
+        <v>6</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="14">
+        <v>8080</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','KENANTI','59158');</v>
-      </c>
-      <c r="Q126" t="str">
-        <f t="shared" si="4"/>
-        <v>KENANTI</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A127" s="4">
-        <v>5</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C127" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Kesambi','8080');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="14">
+        <v>7</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="14">
+        <v>8080</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','ALASDOWO','59158');</v>
-      </c>
-      <c r="Q127" t="str">
-        <f t="shared" si="4"/>
-        <v>ALASDOWO</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A128" s="4">
-        <v>6</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Kirig','8080');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="14">
+        <v>8</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="14">
+        <v>8080</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','GROGOLAN','59158');</v>
-      </c>
-      <c r="Q128" t="str">
-        <f t="shared" si="4"/>
-        <v>GROGOLAN</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A129" s="4">
-        <v>7</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C129" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Mejobo','8080');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="14">
+        <v>9</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C129" s="14">
+        <v>8080</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','DUKUHSETI','59158');</v>
-      </c>
-      <c r="Q129" t="str">
-        <f t="shared" si="4"/>
-        <v>DUKUHSETI</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A130" s="4">
-        <v>8</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Payaman','8080');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="14">
+        <v>10</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="14">
+        <v>8080</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','BANYUTOWO','59158');</v>
-      </c>
-      <c r="Q130" t="str">
-        <f t="shared" si="4"/>
-        <v>BANYUTOWO</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A131" s="4">
-        <v>9</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C131" s="5">
-        <v>59158</v>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Temulus','8080');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="14">
+        <v>11</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" s="14">
+        <v>8080</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','KEMBANG','59158');</v>
-      </c>
-      <c r="Q131" t="str">
-        <f t="shared" ref="Q131:Q137" si="8">UPPER(B131)</f>
-        <v>KEMBANG</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A132" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('MEJOBO','Tenggeles','8080');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="11">
+        <v>1</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="11">
+        <v>2</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C134" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E134" t="str">
+        <f>"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','"&amp;B134&amp;"','"&amp;C134&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Glagahwaru','87868');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="11">
+        <v>3</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" ref="E135:E149" si="8">"INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','"&amp;B135&amp;"','"&amp;C135&amp;"');"</f>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Kalirejo','87868');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="11">
+        <v>4</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C136" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Karangrowo','87868');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="11">
+        <v>5</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Kutuk','87868');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="11">
+        <v>6</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Lambangan','87868');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="11">
+        <v>7</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Larikrejo','87868');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="11">
+        <v>8</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Medini','87868');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="11">
+        <v>9</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Ngemplak','87868');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="11">
         <v>10</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="5">
-        <v>59158</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','TEGALOMBO','59158');</v>
-      </c>
-      <c r="Q132" t="str">
+      <c r="B142" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E142" t="str">
         <f t="shared" si="8"/>
-        <v>TEGALOMBO</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A133" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Sambung','87868');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="11">
         <v>11</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" s="5">
-        <v>59158</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','PUNCEL','59158');</v>
-      </c>
-      <c r="Q133" t="str">
+      <c r="B143" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E143" t="str">
         <f t="shared" si="8"/>
-        <v>PUNCEL</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A134" s="4">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Terangmas','87868');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="11">
         <v>12</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C134" s="5">
-        <v>59158</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('DUKUHSETI','WEDUSAN','59158');</v>
-      </c>
-      <c r="Q134" t="str">
+      <c r="B144" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E144" t="str">
         <f t="shared" si="8"/>
-        <v>WEDUSAN</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
-      <c r="B135" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q135" t="str">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Undaan Kidul','87868');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="11">
+        <v>13</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E145" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="B136" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q136" t="str">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Undaan Lor','87868');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="11">
+        <v>14</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E146" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="B137" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q137" t="str">
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Undaan Tengah','87868');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="11">
+        <v>15</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E147" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Wates','87868');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="11">
+        <v>16</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="C148" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Wonosoco','87868');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="11">
+        <v>17</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" s="14">
+        <v>87868</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO wilayah (kecamatan, desa, no_telp) VALUES ('UNDAAN','Berugenjang','87868');</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="D2" t="str">
         <f>"INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
@@ -4860,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D25" si="0">"INSERT INTO `bencana`(`id_bencana`, `nama_bencana`) VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
@@ -4872,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -4884,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>223</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -4896,7 +4579,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -4908,7 +4591,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -4920,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -4932,7 +4615,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -4944,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -4956,7 +4639,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -4968,7 +4651,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -4980,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>229</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -4992,7 +4675,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>231</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -5003,8 +4686,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>349</v>
+      <c r="B15" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -5015,8 +4698,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>350</v>
+      <c r="B16" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -5027,8 +4710,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>351</v>
+      <c r="B17" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -5039,8 +4722,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>349</v>
+      <c r="B18" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -5051,8 +4734,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>352</v>
+      <c r="B19" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -5063,8 +4746,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>353</v>
+      <c r="B20" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -5075,8 +4758,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>354</v>
+      <c r="B21" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -5087,8 +4770,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>355</v>
+      <c r="B22" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -5099,8 +4782,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>356</v>
+      <c r="B23" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -5111,8 +4794,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>358</v>
+      <c r="B24" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -5123,8 +4806,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>347</v>
+      <c r="B25" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -5140,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5152,10 +4835,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>320</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5163,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D2" t="str">
         <f>"INSERT INTO `bantuan`  (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','MATERIAL','"&amp;C2&amp;"','YYYYMMDD');"</f>
@@ -5178,10 +4861,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D3" t="str">
         <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','MATERIAL','"&amp;C3&amp;"','YYYYMMDD');"</f>
@@ -5193,13 +4876,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D3:D17" si="0">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A4&amp;",'"&amp;B4&amp;"','MATERIAL','"&amp;C4&amp;"','YYYYMMDD');"</f>
+        <f t="shared" ref="D4:D17" si="0">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A4&amp;",'"&amp;B4&amp;"','MATERIAL','"&amp;C4&amp;"','YYYYMMDD');"</f>
         <v>INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES (3,'Seng','MATERIAL','Lembar','YYYYMMDD');</v>
       </c>
     </row>
@@ -5208,10 +4891,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -5223,10 +4906,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -5238,10 +4921,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -5253,10 +4936,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -5268,10 +4951,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -5283,10 +4966,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -5298,10 +4981,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -5313,10 +4996,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -5328,10 +5011,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -5343,10 +5026,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -5358,10 +5041,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -5373,10 +5056,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -5388,10 +5071,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -5400,7 +5083,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5408,10 +5091,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D20" t="str">
         <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A20&amp;",'"&amp;B20&amp;"','SANDANG','"&amp;C20&amp;"','YYYYMMDD');"</f>
@@ -5423,10 +5106,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ref="D21:D84" si="1">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A21&amp;",'"&amp;B21&amp;"','SANDANG','"&amp;C21&amp;"','YYYYMMDD');"</f>
@@ -5438,10 +5121,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -5453,10 +5136,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -5468,10 +5151,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -5483,10 +5166,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -5498,10 +5181,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -5513,10 +5196,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -5528,10 +5211,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -5543,10 +5226,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -5558,10 +5241,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -5573,10 +5256,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -5588,10 +5271,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -5603,10 +5286,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -5618,10 +5301,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -5633,10 +5316,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -5648,10 +5331,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
@@ -5663,10 +5346,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
@@ -5678,10 +5361,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
@@ -5693,10 +5376,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
@@ -5708,10 +5391,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
@@ -5723,10 +5406,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
@@ -5738,10 +5421,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
@@ -5753,10 +5436,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -5768,10 +5451,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -5783,10 +5466,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
@@ -5798,10 +5481,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
@@ -5813,10 +5496,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
@@ -5828,10 +5511,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
@@ -5843,10 +5526,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
@@ -5858,10 +5541,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
@@ -5873,10 +5556,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
@@ -5888,10 +5571,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
@@ -5903,10 +5586,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
@@ -5918,10 +5601,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
@@ -5933,10 +5616,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
@@ -5948,10 +5631,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
@@ -5963,10 +5646,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
@@ -5978,10 +5661,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
@@ -5993,10 +5676,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
@@ -6008,10 +5691,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
@@ -6023,10 +5706,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
@@ -6038,10 +5721,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
@@ -6053,10 +5736,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
@@ -6068,10 +5751,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
@@ -6083,10 +5766,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
@@ -6098,10 +5781,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
@@ -6113,10 +5796,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
@@ -6128,10 +5811,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -6143,10 +5826,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -6158,10 +5841,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -6173,10 +5856,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -6188,10 +5871,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -6203,10 +5886,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -6218,10 +5901,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -6233,10 +5916,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -6248,10 +5931,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -6263,10 +5946,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -6278,10 +5961,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -6293,10 +5976,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -6308,10 +5991,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -6323,10 +6006,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -6338,10 +6021,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -6353,10 +6036,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -6368,10 +6051,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -6383,10 +6066,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" ref="D85" si="2">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A85&amp;",'"&amp;B85&amp;"','SANDANG','"&amp;C85&amp;"','YYYYMMDD');"</f>
@@ -6395,7 +6078,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="B87" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6403,10 +6086,10 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D88" t="str">
         <f>"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A88&amp;",'"&amp;B88&amp;"','MAKANAN DAN MINUMAN','"&amp;C88&amp;"','YYYYMMDD');"</f>
@@ -6418,10 +6101,10 @@
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" ref="D89:D111" si="3">"INSERT INTO `bantuan` (`id_bantuan`, `nama_bantuan`, `kategori`, `satuan`, `batch`) VALUES ("&amp;A89&amp;",'"&amp;B89&amp;"','MAKANAN DAN MINUMAN','"&amp;C89&amp;"','YYYYMMDD');"</f>
@@ -6433,10 +6116,10 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
@@ -6448,10 +6131,10 @@
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
@@ -6463,10 +6146,10 @@
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
@@ -6478,10 +6161,10 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
@@ -6493,10 +6176,10 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="3"/>
@@ -6508,10 +6191,10 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
@@ -6523,10 +6206,10 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
@@ -6538,10 +6221,10 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
@@ -6553,10 +6236,10 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="3"/>
@@ -6568,10 +6251,10 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
@@ -6583,10 +6266,10 @@
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
@@ -6598,10 +6281,10 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
@@ -6613,10 +6296,10 @@
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
@@ -6628,10 +6311,10 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
@@ -6643,10 +6326,10 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
@@ -6658,10 +6341,10 @@
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
@@ -6673,10 +6356,10 @@
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
@@ -6688,10 +6371,10 @@
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
@@ -6703,10 +6386,10 @@
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
@@ -6718,10 +6401,10 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
@@ -6733,10 +6416,10 @@
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
@@ -6748,10 +6431,10 @@
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
@@ -6794,7 +6477,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -6808,7 +6491,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
@@ -6818,7 +6501,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -6828,76 +6511,76 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>44928</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>206</v>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12">
+      <c r="B3" s="2"/>
+      <c r="C3" s="8">
         <v>44929</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>44930</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>44931</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>44932</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>44933</v>
       </c>
     </row>
@@ -6905,7 +6588,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>44934</v>
       </c>
     </row>
@@ -6913,7 +6596,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>44935</v>
       </c>
     </row>
@@ -6921,15 +6604,15 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>44936</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>44937</v>
       </c>
     </row>
@@ -6937,7 +6620,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>44938</v>
       </c>
     </row>
@@ -6945,7 +6628,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>44939</v>
       </c>
     </row>
@@ -6953,15 +6636,15 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>44940</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="8">
         <v>44941</v>
       </c>
     </row>
@@ -6969,7 +6652,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="8">
         <v>44942</v>
       </c>
     </row>
@@ -6977,7 +6660,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>44943</v>
       </c>
     </row>
@@ -6985,15 +6668,15 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <v>44944</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <v>44945</v>
       </c>
     </row>
@@ -7001,7 +6684,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <v>44946</v>
       </c>
     </row>
@@ -7009,7 +6692,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <v>44947</v>
       </c>
     </row>
@@ -7017,15 +6700,15 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <v>44948</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
         <v>44949</v>
       </c>
     </row>
@@ -7033,7 +6716,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="8">
         <v>44950</v>
       </c>
     </row>
@@ -7041,7 +6724,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <v>44951</v>
       </c>
     </row>
@@ -7049,15 +6732,15 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="8">
         <v>44952</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="8">
         <v>44953</v>
       </c>
     </row>
@@ -7065,7 +6748,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="8">
         <v>44954</v>
       </c>
     </row>
@@ -7073,7 +6756,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="8">
         <v>44955</v>
       </c>
     </row>
@@ -7081,15 +6764,15 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="8">
         <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="8">
         <v>44957</v>
       </c>
     </row>
@@ -7116,23 +6799,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="E9" s="14"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="D10" s="14"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="80" ht="14.25" customHeight="1"/>
   </sheetData>
@@ -7145,10 +6828,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7156,7 +6839,58 @@
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="C40:C49">
     <cfRule type="duplicateValues" dxfId="2" priority="8"/>
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="BENCANA" sheetId="4" r:id="rId4"/>
     <sheet name="BANTUAN" sheetId="3" r:id="rId5"/>
     <sheet name="PELAPORAN" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="STOK BANTUAN" sheetId="7" r:id="rId7"/>
     <sheet name="DAT" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="386">
   <si>
     <t>user</t>
   </si>
@@ -1173,6 +1173,21 @@
   </si>
   <si>
     <t>NAMA DESA UNDAAN</t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>stok_masuk</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>stok_tersedia</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1298,7 +1313,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2393,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="E134" sqref="E134:E149"/>
     </sheetView>
   </sheetViews>
@@ -2405,24 +2419,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>89765676561</v>
       </c>
       <c r="E2" t="str">
@@ -2431,13 +2445,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>89765676562</v>
       </c>
       <c r="E3" t="str">
@@ -2446,13 +2460,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>89765676563</v>
       </c>
       <c r="E4" t="str">
@@ -2461,13 +2475,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>89765676564</v>
       </c>
       <c r="E5" t="str">
@@ -2476,13 +2490,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>89765676565</v>
       </c>
       <c r="E6" t="str">
@@ -2491,13 +2505,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>89765676566</v>
       </c>
       <c r="E7" t="str">
@@ -2506,13 +2520,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>89765676567</v>
       </c>
       <c r="E8" t="str">
@@ -2521,13 +2535,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>89765676568</v>
       </c>
       <c r="E9" t="str">
@@ -2536,13 +2550,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>89765676569</v>
       </c>
       <c r="E10" t="str">
@@ -2551,13 +2565,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>89765676570</v>
       </c>
       <c r="E11" t="str">
@@ -2566,27 +2580,27 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="str">
@@ -2595,13 +2609,13 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>87656765431</v>
       </c>
       <c r="E15" t="str">
@@ -2610,13 +2624,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>87656765432</v>
       </c>
       <c r="E16" t="str">
@@ -2625,13 +2639,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>3</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>87656765433</v>
       </c>
       <c r="E17" t="str">
@@ -2640,13 +2654,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>87656765434</v>
       </c>
       <c r="E18" t="str">
@@ -2655,13 +2669,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>87656765435</v>
       </c>
       <c r="E19" t="str">
@@ -2670,13 +2684,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>6</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>87656765436</v>
       </c>
       <c r="E20" t="str">
@@ -2685,13 +2699,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>7</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>87656765437</v>
       </c>
       <c r="E21" t="str">
@@ -2700,13 +2714,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>8</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>87656765438</v>
       </c>
       <c r="E22" t="str">
@@ -2715,13 +2729,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>9</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>87656765439</v>
       </c>
       <c r="E23" t="str">
@@ -2730,13 +2744,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>10</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>87656765440</v>
       </c>
       <c r="E24" t="str">
@@ -2745,13 +2759,13 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>11</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>87656765441</v>
       </c>
       <c r="E25" t="str">
@@ -2760,13 +2774,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>12</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>87656765442</v>
       </c>
       <c r="E26" t="str">
@@ -2775,13 +2789,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>13</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>87656765443</v>
       </c>
       <c r="E27" t="str">
@@ -2790,13 +2804,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>14</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>87656765444</v>
       </c>
       <c r="E28" t="str">
@@ -2805,13 +2819,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>15</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>87656765445</v>
       </c>
       <c r="E29" t="str">
@@ -2820,13 +2834,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>16</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>87656765446</v>
       </c>
       <c r="E30" t="str">
@@ -2835,13 +2849,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>17</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>87656765447</v>
       </c>
       <c r="E31" t="str">
@@ -2850,13 +2864,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>18</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>87656765448</v>
       </c>
       <c r="E32" t="str">
@@ -2865,38 +2879,38 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>1</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>59163</v>
       </c>
       <c r="E36" t="str">
@@ -2905,13 +2919,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>2</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>59163</v>
       </c>
       <c r="E37" t="str">
@@ -2920,13 +2934,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>3</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>59163</v>
       </c>
       <c r="E38" t="str">
@@ -2935,13 +2949,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>4</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>59163</v>
       </c>
       <c r="E39" t="str">
@@ -2950,13 +2964,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>5</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>59163</v>
       </c>
       <c r="E40" t="str">
@@ -2965,13 +2979,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>6</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>59163</v>
       </c>
       <c r="E41" t="str">
@@ -2980,13 +2994,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>7</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>59163</v>
       </c>
       <c r="E42" t="str">
@@ -2995,13 +3009,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>8</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>59163</v>
       </c>
       <c r="E43" t="str">
@@ -3010,13 +3024,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>9</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>59163</v>
       </c>
       <c r="E44" t="str">
@@ -3025,13 +3039,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>10</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>59163</v>
       </c>
       <c r="E45" t="str">
@@ -3040,13 +3054,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>11</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>59163</v>
       </c>
       <c r="E46" t="str">
@@ -3055,31 +3069,31 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>1</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>59153</v>
       </c>
       <c r="E49" t="str">
@@ -3088,13 +3102,13 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>2</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>59153</v>
       </c>
       <c r="E50" t="str">
@@ -3103,13 +3117,13 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>3</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>59153</v>
       </c>
       <c r="E51" t="str">
@@ -3118,13 +3132,13 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>4</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>59153</v>
       </c>
       <c r="E52" t="str">
@@ -3133,13 +3147,13 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>5</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <v>59153</v>
       </c>
       <c r="E53" t="str">
@@ -3148,13 +3162,13 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>6</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>59153</v>
       </c>
       <c r="E54" t="str">
@@ -3163,13 +3177,13 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>7</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <v>59153</v>
       </c>
       <c r="E55" t="str">
@@ -3178,13 +3192,13 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>8</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <v>59153</v>
       </c>
       <c r="E56" t="str">
@@ -3193,13 +3207,13 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>9</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="13">
         <v>59153</v>
       </c>
       <c r="E57" t="str">
@@ -3208,13 +3222,13 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>10</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <v>59153</v>
       </c>
       <c r="E58" t="str">
@@ -3223,13 +3237,13 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>11</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="13">
         <v>59153</v>
       </c>
       <c r="E59" t="str">
@@ -3238,13 +3252,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>12</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="13">
         <v>59153</v>
       </c>
       <c r="E60" t="str">
@@ -3253,13 +3267,13 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>13</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="13">
         <v>59153</v>
       </c>
       <c r="E61" t="str">
@@ -3268,13 +3282,13 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="14">
+      <c r="A62" s="13">
         <v>14</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <v>59153</v>
       </c>
       <c r="E62" t="str">
@@ -3283,31 +3297,31 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="11"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="14">
+      <c r="A65" s="13">
         <v>1</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <v>59185</v>
       </c>
       <c r="E65" t="str">
@@ -3316,13 +3330,13 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="14">
+      <c r="A66" s="13">
         <v>2</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <v>59185</v>
       </c>
       <c r="E66" t="str">
@@ -3331,13 +3345,13 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="14">
+      <c r="A67" s="13">
         <v>3</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <v>59185</v>
       </c>
       <c r="E67" t="str">
@@ -3346,13 +3360,13 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="14">
+      <c r="A68" s="13">
         <v>4</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <v>59185</v>
       </c>
       <c r="E68" t="str">
@@ -3361,13 +3375,13 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="14">
+      <c r="A69" s="13">
         <v>5</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <v>59185</v>
       </c>
       <c r="E69" t="str">
@@ -3376,13 +3390,13 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="14">
+      <c r="A70" s="13">
         <v>6</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="13">
         <v>59185</v>
       </c>
       <c r="E70" t="str">
@@ -3391,13 +3405,13 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="14">
+      <c r="A71" s="13">
         <v>7</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="13">
         <v>59185</v>
       </c>
       <c r="E71" t="str">
@@ -3406,13 +3420,13 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="14">
+      <c r="A72" s="13">
         <v>8</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="13">
         <v>59185</v>
       </c>
       <c r="E72" t="str">
@@ -3421,13 +3435,13 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="14">
+      <c r="A73" s="13">
         <v>9</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="13">
         <v>59185</v>
       </c>
       <c r="E73" t="str">
@@ -3436,13 +3450,13 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="14">
+      <c r="A74" s="13">
         <v>10</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="13">
         <v>59185</v>
       </c>
       <c r="E74" t="str">
@@ -3451,13 +3465,13 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="14">
+      <c r="A75" s="13">
         <v>11</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="13">
         <v>59185</v>
       </c>
       <c r="E75" t="str">
@@ -3466,13 +3480,13 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="14">
+      <c r="A76" s="13">
         <v>12</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="13">
         <v>59185</v>
       </c>
       <c r="E76" t="str">
@@ -3481,24 +3495,24 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="25.5">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="14">
+      <c r="A79" s="13">
         <v>1</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="13">
         <v>59158</v>
       </c>
       <c r="E79" t="str">
@@ -3507,13 +3521,13 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="14">
+      <c r="A80" s="13">
         <v>2</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="13">
         <v>59158</v>
       </c>
       <c r="E80" t="str">
@@ -3522,13 +3536,13 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="14">
+      <c r="A81" s="13">
         <v>3</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="13">
         <v>59158</v>
       </c>
       <c r="E81" t="str">
@@ -3537,13 +3551,13 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="14">
+      <c r="A82" s="13">
         <v>4</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="13">
         <v>59158</v>
       </c>
       <c r="E82" t="str">
@@ -3552,13 +3566,13 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="14">
+      <c r="A83" s="13">
         <v>5</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="13">
         <v>59158</v>
       </c>
       <c r="E83" t="str">
@@ -3567,13 +3581,13 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="14">
+      <c r="A84" s="13">
         <v>6</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="13">
         <v>59158</v>
       </c>
       <c r="E84" t="str">
@@ -3582,13 +3596,13 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="14">
+      <c r="A85" s="13">
         <v>7</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="13">
         <v>59158</v>
       </c>
       <c r="E85" t="str">
@@ -3597,13 +3611,13 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="14">
+      <c r="A86" s="13">
         <v>8</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="13">
         <v>59158</v>
       </c>
       <c r="E86" t="str">
@@ -3612,13 +3626,13 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="14">
+      <c r="A87" s="13">
         <v>9</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="13">
         <v>59158</v>
       </c>
       <c r="E87" t="str">
@@ -3627,13 +3641,13 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="14">
+      <c r="A88" s="13">
         <v>10</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="13">
         <v>59158</v>
       </c>
       <c r="E88" t="str">
@@ -3642,13 +3656,13 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="14">
+      <c r="A89" s="13">
         <v>11</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="13">
         <v>59158</v>
       </c>
       <c r="E89" t="str">
@@ -3657,13 +3671,13 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="14">
+      <c r="A90" s="13">
         <v>12</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="13">
         <v>59158</v>
       </c>
       <c r="E90" t="str">
@@ -3672,13 +3686,13 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="14">
+      <c r="A91" s="13">
         <v>13</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="13">
         <v>59158</v>
       </c>
       <c r="E91" t="str">
@@ -3687,13 +3701,13 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="14">
+      <c r="A92" s="13">
         <v>14</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="13">
         <v>59158</v>
       </c>
       <c r="E92" t="str">
@@ -3702,13 +3716,13 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="14">
+      <c r="A93" s="13">
         <v>15</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="13">
         <v>59158</v>
       </c>
       <c r="E93" t="str">
@@ -3717,24 +3731,24 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="14">
+      <c r="A96" s="13">
         <v>1</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="13">
         <v>59159</v>
       </c>
       <c r="E96" t="str">
@@ -3743,13 +3757,13 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="14">
+      <c r="A97" s="13">
         <v>2</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="13">
         <v>59159</v>
       </c>
       <c r="E97" t="str">
@@ -3758,13 +3772,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="14">
+      <c r="A98" s="13">
         <v>3</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="13">
         <v>59159</v>
       </c>
       <c r="E98" t="str">
@@ -3773,13 +3787,13 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="14">
+      <c r="A99" s="13">
         <v>4</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="13">
         <v>59159</v>
       </c>
       <c r="E99" t="str">
@@ -3788,13 +3802,13 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="14">
+      <c r="A100" s="13">
         <v>5</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="13">
         <v>59159</v>
       </c>
       <c r="E100" t="str">
@@ -3803,13 +3817,13 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="14">
+      <c r="A101" s="13">
         <v>6</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="13">
         <v>59159</v>
       </c>
       <c r="E101" t="str">
@@ -3818,13 +3832,13 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="14">
+      <c r="A102" s="13">
         <v>7</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="13">
         <v>59159</v>
       </c>
       <c r="E102" t="str">
@@ -3833,13 +3847,13 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="14">
+      <c r="A103" s="13">
         <v>8</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="13">
         <v>59159</v>
       </c>
       <c r="E103" t="str">
@@ -3848,13 +3862,13 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="14">
+      <c r="A104" s="13">
         <v>9</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="13">
         <v>59159</v>
       </c>
       <c r="E104" t="str">
@@ -3863,13 +3877,13 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="14">
+      <c r="A105" s="13">
         <v>10</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="13">
         <v>59159</v>
       </c>
       <c r="E105" t="str">
@@ -3878,13 +3892,13 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="14">
+      <c r="A106" s="13">
         <v>11</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="13">
         <v>59159</v>
       </c>
       <c r="E106" t="str">
@@ -3893,13 +3907,13 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="14">
+      <c r="A107" s="13">
         <v>12</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="13">
         <v>59159</v>
       </c>
       <c r="E107" t="str">
@@ -3908,13 +3922,13 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="14">
+      <c r="A108" s="13">
         <v>13</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="13">
         <v>59159</v>
       </c>
       <c r="E108" t="str">
@@ -3923,13 +3937,13 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="14">
+      <c r="A109" s="13">
         <v>14</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="13">
         <v>59159</v>
       </c>
       <c r="E109" t="str">
@@ -3938,13 +3952,13 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="14">
+      <c r="A110" s="13">
         <v>15</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="13">
         <v>59159</v>
       </c>
       <c r="E110" t="str">
@@ -3953,13 +3967,13 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="14">
+      <c r="A111" s="13">
         <v>16</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="13">
         <v>59159</v>
       </c>
       <c r="E111" t="str">
@@ -3968,13 +3982,13 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="14">
+      <c r="A112" s="13">
         <v>17</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="13">
         <v>59159</v>
       </c>
       <c r="E112" t="str">
@@ -3983,13 +3997,13 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="14">
+      <c r="A113" s="13">
         <v>18</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="13">
         <v>59159</v>
       </c>
       <c r="E113" t="str">
@@ -3998,13 +4012,13 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="14">
+      <c r="A114" s="13">
         <v>19</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="13">
         <v>59159</v>
       </c>
       <c r="E114" t="str">
@@ -4013,13 +4027,13 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="14">
+      <c r="A115" s="13">
         <v>20</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="13">
         <v>59159</v>
       </c>
       <c r="E115" t="str">
@@ -4028,13 +4042,13 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="14">
+      <c r="A116" s="13">
         <v>21</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="13">
         <v>59159</v>
       </c>
       <c r="E116" t="str">
@@ -4043,13 +4057,13 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="14">
+      <c r="A117" s="13">
         <v>22</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="13">
         <v>59159</v>
       </c>
       <c r="E117" t="str">
@@ -4058,13 +4072,13 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="14">
+      <c r="A118" s="13">
         <v>23</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="13">
         <v>59159</v>
       </c>
       <c r="E118" t="str">
@@ -4073,24 +4087,24 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="14">
+      <c r="A121" s="13">
         <v>1</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="13">
         <v>8080</v>
       </c>
       <c r="E121" t="str">
@@ -4099,13 +4113,13 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="14">
+      <c r="A122" s="13">
         <v>2</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C122" s="14">
+      <c r="C122" s="13">
         <v>8080</v>
       </c>
       <c r="E122" t="str">
@@ -4114,13 +4128,13 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="14">
+      <c r="A123" s="13">
         <v>3</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C123" s="13">
         <v>8080</v>
       </c>
       <c r="E123" t="str">
@@ -4129,13 +4143,13 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="14">
+      <c r="A124" s="13">
         <v>4</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="13">
         <v>8080</v>
       </c>
       <c r="E124" t="str">
@@ -4144,13 +4158,13 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="14">
+      <c r="A125" s="13">
         <v>5</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C125" s="14">
+      <c r="C125" s="13">
         <v>8080</v>
       </c>
       <c r="E125" t="str">
@@ -4159,13 +4173,13 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="14">
+      <c r="A126" s="13">
         <v>6</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C126" s="14">
+      <c r="C126" s="13">
         <v>8080</v>
       </c>
       <c r="E126" t="str">
@@ -4174,13 +4188,13 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="14">
+      <c r="A127" s="13">
         <v>7</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C127" s="14">
+      <c r="C127" s="13">
         <v>8080</v>
       </c>
       <c r="E127" t="str">
@@ -4189,13 +4203,13 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="14">
+      <c r="A128" s="13">
         <v>8</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C128" s="14">
+      <c r="C128" s="13">
         <v>8080</v>
       </c>
       <c r="E128" t="str">
@@ -4204,13 +4218,13 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="14">
+      <c r="A129" s="13">
         <v>9</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="13">
         <v>8080</v>
       </c>
       <c r="E129" t="str">
@@ -4219,13 +4233,13 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="14">
+      <c r="A130" s="13">
         <v>10</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="13">
         <v>8080</v>
       </c>
       <c r="E130" t="str">
@@ -4234,13 +4248,13 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="14">
+      <c r="A131" s="13">
         <v>11</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="13">
         <v>8080</v>
       </c>
       <c r="E131" t="str">
@@ -4249,24 +4263,24 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="11">
+      <c r="A133" s="10">
         <v>1</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="11">
+      <c r="A134" s="10">
         <v>2</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C134" s="14">
+      <c r="C134" s="13">
         <v>87868</v>
       </c>
       <c r="E134" t="str">
@@ -4275,13 +4289,13 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="11">
+      <c r="A135" s="10">
         <v>3</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C135" s="14">
+      <c r="C135" s="13">
         <v>87868</v>
       </c>
       <c r="E135" t="str">
@@ -4290,13 +4304,13 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="11">
+      <c r="A136" s="10">
         <v>4</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C136" s="14">
+      <c r="C136" s="13">
         <v>87868</v>
       </c>
       <c r="E136" t="str">
@@ -4305,13 +4319,13 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="11">
+      <c r="A137" s="10">
         <v>5</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="13">
         <v>87868</v>
       </c>
       <c r="E137" t="str">
@@ -4320,13 +4334,13 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="11">
+      <c r="A138" s="10">
         <v>6</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="13">
         <v>87868</v>
       </c>
       <c r="E138" t="str">
@@ -4335,13 +4349,13 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="11">
+      <c r="A139" s="10">
         <v>7</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C139" s="14">
+      <c r="C139" s="13">
         <v>87868</v>
       </c>
       <c r="E139" t="str">
@@ -4350,13 +4364,13 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="11">
+      <c r="A140" s="10">
         <v>8</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="13">
         <v>87868</v>
       </c>
       <c r="E140" t="str">
@@ -4365,13 +4379,13 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="11">
+      <c r="A141" s="10">
         <v>9</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C141" s="14">
+      <c r="C141" s="13">
         <v>87868</v>
       </c>
       <c r="E141" t="str">
@@ -4380,13 +4394,13 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="11">
+      <c r="A142" s="10">
         <v>10</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C142" s="14">
+      <c r="C142" s="13">
         <v>87868</v>
       </c>
       <c r="E142" t="str">
@@ -4395,13 +4409,13 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="11">
+      <c r="A143" s="10">
         <v>11</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C143" s="14">
+      <c r="C143" s="13">
         <v>87868</v>
       </c>
       <c r="E143" t="str">
@@ -4410,13 +4424,13 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="11">
+      <c r="A144" s="10">
         <v>12</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C144" s="14">
+      <c r="C144" s="13">
         <v>87868</v>
       </c>
       <c r="E144" t="str">
@@ -4425,13 +4439,13 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="11">
+      <c r="A145" s="10">
         <v>13</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C145" s="14">
+      <c r="C145" s="13">
         <v>87868</v>
       </c>
       <c r="E145" t="str">
@@ -4440,13 +4454,13 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="11">
+      <c r="A146" s="10">
         <v>14</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C146" s="14">
+      <c r="C146" s="13">
         <v>87868</v>
       </c>
       <c r="E146" t="str">
@@ -4455,13 +4469,13 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="11">
+      <c r="A147" s="10">
         <v>15</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C147" s="14">
+      <c r="C147" s="13">
         <v>87868</v>
       </c>
       <c r="E147" t="str">
@@ -4470,13 +4484,13 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="11">
+      <c r="A148" s="10">
         <v>16</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C148" s="14">
+      <c r="C148" s="13">
         <v>87868</v>
       </c>
       <c r="E148" t="str">
@@ -4485,13 +4499,13 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="11">
+      <c r="A149" s="10">
         <v>17</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="13">
         <v>87868</v>
       </c>
       <c r="E149" t="str">
@@ -6783,46 +6797,2273 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E80"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;","&amp;D2&amp;",'"&amp;B2&amp;"');"</f>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(1,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">"INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;D3&amp;",'"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(2,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(3,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(4,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(5,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(6,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(7,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(8,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(9,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(10,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(11,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(12,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(13,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(14,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(15,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(16,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(17,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(18,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(19,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(20,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(21,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(22,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(23,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(24,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(25,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(26,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(27,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(28,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(29,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(30,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(31,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(32,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(33,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(34,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(35,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(36,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(37,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(38,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(39,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(40,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(41,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(42,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(43,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(44,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(45,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(46,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(47,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(48,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(49,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(50,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(51,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>383</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(52,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>383</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(53,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(54,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(55,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(56,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>383</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(57,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>100</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(58,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(59,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>383</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(60,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(61,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(62,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(63,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(64,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(65,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F107" si="1">"INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES("&amp;A67&amp;",'"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;","&amp;D67&amp;",'"&amp;B67&amp;"');"</f>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(66,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(67,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(68,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>383</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(69,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(70,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(71,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(72,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(73,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(74,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(75,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(76,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(77,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>383</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(78,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(79,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(80,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(81,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>383</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(82,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>383</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(83,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(84,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(85,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(86,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>100</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(87,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>383</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>100</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(88,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(89,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(90,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(91,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(92,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>383</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(93,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95">
+        <v>100</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(94,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(95,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(96,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(97,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>383</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(98,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(99,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(100,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(101,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>383</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(102,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(103,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>383</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(104,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(105,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `stok_bantuan`( `id_bantuan`, `tanggal_masuk`, `tanggal_kadaluarsa`, `stok_masuk`, `stok_tersedia`, `batch`)VALUES(106,'2023-01-09','2025-01-09',100,100,'2023-01-09');</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A26">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="BANTUAN" sheetId="3" r:id="rId5"/>
     <sheet name="PELAPORAN" sheetId="6" r:id="rId6"/>
     <sheet name="STOK BANTUAN" sheetId="7" r:id="rId7"/>
-    <sheet name="DAT" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="DAT" sheetId="8" r:id="rId9"/>
+    <sheet name="USER_BU" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BANTUAN!$B$87:$B$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">BANTUAN!$B$87:$B$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BANTUAN!$B$1:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateCount="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="392">
   <si>
     <t>user</t>
   </si>
@@ -1188,12 +1190,30 @@
   </si>
   <si>
     <t>stok_tersedia</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>kepala</t>
+  </si>
+  <si>
+    <t>kudus</t>
+  </si>
+  <si>
+    <t>logistik</t>
+  </si>
+  <si>
+    <t>kajian</t>
+  </si>
+  <si>
+    <t>dyah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1947,6 +1967,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2">
+        <v>893456745</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="2">
+        <v>893456745</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8934566547</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="2">
+        <v>893456734</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8934567534</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="2">
+        <v>89778908000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
@@ -6799,7 +6981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E107"/>
     </sheetView>
   </sheetViews>
@@ -9068,6 +9250,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A11"/>
   <sheetViews>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
     <sheet name="DAT" sheetId="8" r:id="rId9"/>
     <sheet name="USER_BU" sheetId="10" r:id="rId10"/>
+    <sheet name="WA" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">BANTUAN!$B$87:$B$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">BANTUAN!$B$1:$B$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="447">
   <si>
     <t>user</t>
   </si>
@@ -1208,16 +1209,181 @@
   </si>
   <si>
     <t>dyah</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>review_pelaporan</t>
+  </si>
+  <si>
+    <t>gambar_pelapor</t>
+  </si>
+  <si>
+    <t>gambar_lokasi_bencana</t>
+  </si>
+  <si>
+    <t>gambar_bencana</t>
+  </si>
+  <si>
+    <t>id_petugas_bpbd</t>
+  </si>
+  <si>
+    <t>id_pelapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPBD KABUPATEN KUDUS </t>
+  </si>
+  <si>
+    <t>Menginformasikan adanya pelaporan dari masyarakat :</t>
+  </si>
+  <si>
+    <t>Untuk pihak yang berkaitan dengan penanganan bencan untuk dapat menjalankan kewajibannya sesuai dengan aturan yang berlaku</t>
+  </si>
+  <si>
+    <t>Terima kasih</t>
+  </si>
+  <si>
+    <t>id_petugas_kajian</t>
+  </si>
+  <si>
+    <t>jumlah_korban</t>
+  </si>
+  <si>
+    <t>keterangan_peninjauan</t>
+  </si>
+  <si>
+    <t>status_peninjauan</t>
+  </si>
+  <si>
+    <t>dusun</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>jumlah_kk</t>
+  </si>
+  <si>
+    <t>jumlah_rumah</t>
+  </si>
+  <si>
+    <t>sebab</t>
+  </si>
+  <si>
+    <t>akibat</t>
+  </si>
+  <si>
+    <t>upaya_penanganan</t>
+  </si>
+  <si>
+    <t>lain_lain</t>
+  </si>
+  <si>
+    <t>Peninjauan</t>
+  </si>
+  <si>
+    <t>Menginformasikan adanya peninjauan dari petugas kajian bencana sebagai berikut:</t>
+  </si>
+  <si>
+    <t>POSKO</t>
+  </si>
+  <si>
+    <t>id_posko</t>
+  </si>
+  <si>
+    <t>nama_posko</t>
+  </si>
+  <si>
+    <t>jumlah_jiwa</t>
+  </si>
+  <si>
+    <t>balita</t>
+  </si>
+  <si>
+    <t>remaja</t>
+  </si>
+  <si>
+    <t>dewasa</t>
+  </si>
+  <si>
+    <t>lanjut_usia</t>
+  </si>
+  <si>
+    <t>status_posko</t>
+  </si>
+  <si>
+    <t>tanggal_posko</t>
+  </si>
+  <si>
+    <t>tanggal_selesai</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>gambar_posko</t>
+  </si>
+  <si>
+    <t>Menginformasikan adanya posko dari petugas kajian bencana sebagai berikut:</t>
+  </si>
+  <si>
+    <t>id_distribusi</t>
+  </si>
+  <si>
+    <t>tanggal_distribusi</t>
+  </si>
+  <si>
+    <t>keterangan_distribusi</t>
+  </si>
+  <si>
+    <t>status_distribusi</t>
+  </si>
+  <si>
+    <t>bukti_distribusi</t>
+  </si>
+  <si>
+    <t>id_petugas_logistik</t>
+  </si>
+  <si>
+    <t>DISTRIBUSI</t>
+  </si>
+  <si>
+    <t>id_bantuan_distribusi</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>BANTUAN distribusi</t>
+  </si>
+  <si>
+    <t>Menginformasikan adanya distribusi bantuan dari petugas logistik bencana sebagai berikut:</t>
+  </si>
+  <si>
+    <t>STOK BANTUAN</t>
+  </si>
+  <si>
+    <t>BANTUAN</t>
+  </si>
+  <si>
+    <t>stok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1436,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1312,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1342,6 +1540,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2123,6 +2336,1139 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="D1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="D2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(""". $request['",B5,"'] . ","""")</f>
+        <v>". $request['id_pelaporan'] . "</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE(B5, ":", C5)</f>
+        <v>id_pelaporan:". $request['id_pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C69" si="0">CONCATENATE(""". $request['",B6,"'] . ","""")</f>
+        <v>". $request['id_pelapor'] . "</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D19" si="1">CONCATENATE(B6, ":", C6)</f>
+        <v>id_pelapor:". $request['id_pelapor'] . "</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_petugas_bpbd'] . "</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>id_petugas_bpbd:". $request['id_petugas_bpbd'] . "</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_bencana'] . "</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>id_bencana:". $request['id_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_wilayah'] . "</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>id_wilayah:". $request['id_wilayah'] . "</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['tanggal_pelaporan'] . "</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>tanggal_pelaporan:". $request['tanggal_pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['pelaporan'] . "</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>pelaporan:". $request['pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['link_maps'] . "</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>link_maps:". $request['link_maps'] . "</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['gambar_bencana'] . "</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>gambar_bencana:". $request['gambar_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['gambar_lokasi_bencana'] . "</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>gambar_lokasi_bencana:". $request['gambar_lokasi_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['gambar_pelapor'] . "</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>gambar_pelapor:". $request['gambar_pelapor'] . "</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['status_pelaporan'] . "</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>status_pelaporan:". $request['status_pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['review_pelaporan'] . "</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>review_pelaporan:". $request['review_pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['created_at'] . "</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>created_at:". $request['created_at'] . "</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['updated_at'] . "</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE(B19, ":", C19)</f>
+        <v>updated_at:". $request['updated_at'] . "</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="D21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_peninjauan'] . "</v>
+      </c>
+      <c r="D27" t="str">
+        <f>CONCATENATE(B27, ":", C27)</f>
+        <v>id_peninjauan:". $request['id_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_pelaporan'] . "</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D47" si="2">CONCATENATE(B28, ":", C28)</f>
+        <v>id_pelaporan:". $request['id_pelaporan'] . "</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_wilayah'] . "</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>id_wilayah:". $request['id_wilayah'] . "</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_bencana'] . "</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>id_bencana:". $request['id_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_petugas_kajian'] . "</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>id_petugas_kajian:". $request['id_petugas_kajian'] . "</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['kategori_bencana'] . "</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>kategori_bencana:". $request['kategori_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['level_bencana'] . "</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>level_bencana:". $request['level_bencana'] . "</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['tanggal_peninjauan'] . "</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>tanggal_peninjauan:". $request['tanggal_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['jumlah_korban'] . "</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>jumlah_korban:". $request['jumlah_korban'] . "</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['keterangan_peninjauan'] . "</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>keterangan_peninjauan:". $request['keterangan_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['status_peninjauan'] . "</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>status_peninjauan:". $request['status_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['bukti_peninjauan'] . "</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>bukti_peninjauan:". $request['bukti_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['dusun'] . "</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>dusun:". $request['dusun'] . "</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['rt'] . "</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>rt:". $request['rt'] . "</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['rw'] . "</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>rw:". $request['rw'] . "</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['jumlah_kk'] . "</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>jumlah_kk:". $request['jumlah_kk'] . "</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['jumlah_rumah'] . "</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>jumlah_rumah:". $request['jumlah_rumah'] . "</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['sebab'] . "</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>sebab:". $request['sebab'] . "</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['akibat'] . "</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>akibat:". $request['akibat'] . "</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['upaya_penanganan'] . "</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>upaya_penanganan:". $request['upaya_penanganan'] . "</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['lain_lain'] . "</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>lain_lain:". $request['lain_lain'] . "</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>419</v>
+      </c>
+      <c r="D54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="D55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_posko'] . "</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56:D70" si="3">CONCATENATE(B56, ":", C56)</f>
+        <v>id_posko:". $request['id_posko'] . "</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['id_peninjauan'] . "</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>id_peninjauan:". $request['id_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['nama_posko'] . "</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>nama_posko:". $request['nama_posko'] . "</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['jumlah_jiwa'] . "</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>jumlah_jiwa:". $request['jumlah_jiwa'] . "</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['balita'] . "</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>balita:". $request['balita'] . "</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['remaja'] . "</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>remaja:". $request['remaja'] . "</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['dewasa'] . "</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>dewasa:". $request['dewasa'] . "</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['lanjut_usia'] . "</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>lanjut_usia:". $request['lanjut_usia'] . "</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['status_posko'] . "</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>status_posko:". $request['status_posko'] . "</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['tanggal_posko'] . "</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>tanggal_posko:". $request['tanggal_posko'] . "</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['tanggal_selesai'] . "</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>tanggal_selesai:". $request['tanggal_selesai'] . "</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['keterangan'] . "</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="3"/>
+        <v>keterangan:". $request['keterangan'] . "</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['gambar_posko'] . "</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>gambar_posko:". $request['gambar_posko'] . "</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v>". $request['created_at'] . "</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>created_at:". $request['created_at'] . "</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70" si="4">CONCATENATE(""". $request['",B70,"'] . ","""")</f>
+        <v>". $request['updated_at'] . "</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>updated_at:". $request['updated_at'] . "</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="D72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="D73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="D75" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>439</v>
+      </c>
+      <c r="D76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77:C83" si="5">CONCATENATE(""". $request['",B77,"'] . ","""")</f>
+        <v>". $request['id_distribusi'] . "</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" ref="D77:D83" si="6">CONCATENATE(B77, ":", C77)</f>
+        <v>id_distribusi:". $request['id_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['id_peninjauan'] . "</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="6"/>
+        <v>id_peninjauan:". $request['id_peninjauan'] . "</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['tanggal_distribusi'] . "</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="6"/>
+        <v>tanggal_distribusi:". $request['tanggal_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['keterangan_distribusi'] . "</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="6"/>
+        <v>keterangan_distribusi:". $request['keterangan_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['status_distribusi'] . "</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="6"/>
+        <v>status_distribusi:". $request['status_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['bukti_distribusi'] . "</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="6"/>
+        <v>bukti_distribusi:". $request['bukti_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="5"/>
+        <v>". $request['id_petugas_logistik'] . "</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="6"/>
+        <v>id_petugas_logistik:". $request['id_petugas_logistik'] . "</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="D85" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="D86" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ref="C90:C95" si="7">CONCATENATE(""". $request['",B90,"'] . ","""")</f>
+        <v>". $request['id_bantuan_distribusi'] . "</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" ref="D90:D95" si="8">CONCATENATE(B90, ":", C90)</f>
+        <v>id_bantuan_distribusi:". $request['id_bantuan_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="7"/>
+        <v>". $request['id_distribusi'] . "</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="8"/>
+        <v>id_distribusi:". $request['id_distribusi'] . "</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="7"/>
+        <v>". $request['id_stok_bantuan'] . "</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="8"/>
+        <v>id_stok_bantuan:". $request['id_stok_bantuan'] . "</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="7"/>
+        <v>". $request['jumlah'] . "</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="8"/>
+        <v>jumlah:". $request['jumlah'] . "</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="7"/>
+        <v>". $request['satuan'] . "</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="8"/>
+        <v>satuan:". $request['satuan'] . "</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="7"/>
+        <v>". $request['batch'] . "</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="8"/>
+        <v>batch:". $request['batch'] . "</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ref="C100:C107" si="9">CONCATENATE(""". $request['",B100,"'] . ","""")</f>
+        <v>". $request['id_stok_bantuan'] . "</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" ref="D100:D107" si="10">CONCATENATE(B100, ":", C100)</f>
+        <v>id_stok_bantuan:". $request['id_stok_bantuan'] . "</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['id_bantuan'] . "</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="10"/>
+        <v>id_bantuan:". $request['id_bantuan'] . "</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['tanggal_masuk'] . "</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="10"/>
+        <v>tanggal_masuk:". $request['tanggal_masuk'] . "</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['tanggal_kadaluarsa'] . "</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="10"/>
+        <v>tanggal_kadaluarsa:". $request['tanggal_kadaluarsa'] . "</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['stok_masuk'] . "</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="10"/>
+        <v>stok_masuk:". $request['stok_masuk'] . "</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['stok_tersedia'] . "</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="10"/>
+        <v>stok_tersedia:". $request['stok_tersedia'] . "</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['batch'] . "</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="10"/>
+        <v>batch:". $request['batch'] . "</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="9"/>
+        <v>". $request['satuan'] . "</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="10"/>
+        <v>satuan:". $request['satuan'] . "</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" ref="C108:C115" si="11">CONCATENATE(""". $request['",B110,"'] . ","""")</f>
+        <v>". $request['BANTUAN'] . "</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" ref="D108:D115" si="12">CONCATENATE(B110, ":", C110)</f>
+        <v>BANTUAN:". $request['BANTUAN'] . "</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="11"/>
+        <v>". $request['id_bantuan'] . "</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="12"/>
+        <v>id_bantuan:". $request['id_bantuan'] . "</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="11"/>
+        <v>". $request['nama_bantuan'] . "</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="12"/>
+        <v>nama_bantuan:". $request['nama_bantuan'] . "</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="11"/>
+        <v>". $request['kategori'] . "</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="12"/>
+        <v>kategori:". $request['kategori'] . "</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="11"/>
+        <v>". $request['satuan'] . "</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="12"/>
+        <v>satuan:". $request['satuan'] . "</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="11"/>
+        <v>". $request['stok'] . "</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="12"/>
+        <v>stok:". $request['stok'] . "</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pengaduan-bpbd.xlsx
+++ b/pengaduan-bpbd.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2389,7 +2389,7 @@
         <v>". $request['id_pelapor'] . "</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D19" si="1">CONCATENATE(B6, ":", C6)</f>
+        <f t="shared" ref="D6:D18" si="1">CONCATENATE(B6, ":", C6)</f>
         <v>id_pelapor:". $request['id_pelapor'] . "</v>
       </c>
     </row>
@@ -3397,11 +3397,11 @@
         <v>445</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" ref="C108:C115" si="11">CONCATENATE(""". $request['",B110,"'] . ","""")</f>
+        <f t="shared" ref="C110:C115" si="11">CONCATENATE(""". $request['",B110,"'] . ","""")</f>
         <v>". $request['BANTUAN'] . "</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D108:D115" si="12">CONCATENATE(B110, ":", C110)</f>
+        <f t="shared" ref="D110:D115" si="12">CONCATENATE(B110, ":", C110)</f>
         <v>BANTUAN:". $request['BANTUAN'] . "</v>
       </c>
     </row>
